--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>

--- a/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="1560">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">chara</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">*r</t>
@@ -1556,6 +1556,15 @@
     <t xml:space="preserve">赤の洗礼者</t>
   </si>
   <si>
+    <t xml:space="preserve">baptist_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue baptist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青の洗礼者</t>
+  </si>
+  <si>
     <t xml:space="preserve">minotaur</t>
   </si>
   <si>
@@ -2093,6 +2102,15 @@
     <t xml:space="preserve">闇子</t>
   </si>
   <si>
+    <t xml:space="preserve">stalker_shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shadow stalker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇の老師</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_blue</t>
   </si>
   <si>
@@ -2934,6 +2952,15 @@
   </si>
   <si>
     <t xml:space="preserve">ガグ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deathgaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death gaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デスゲイズ</t>
   </si>
   <si>
     <t xml:space="preserve">mogu</t>
@@ -4799,7 +4826,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
@@ -4828,11 +4855,11 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -4850,11 +4877,11 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -4872,11 +4899,11 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>1098</v>
+        <v>1107</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>1146</v>
+        <v>1155</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -4894,7 +4921,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
@@ -4909,7 +4936,7 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>1396</v>
+        <v>1405</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -4923,7 +4950,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
@@ -4938,7 +4965,7 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="s">
-        <v>1396</v>
+        <v>1405</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
@@ -4952,7 +4979,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
@@ -4967,7 +4994,7 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>1396</v>
+        <v>1405</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
@@ -4981,11 +5008,11 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>1147</v>
+        <v>1156</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -4996,7 +5023,7 @@
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10" t="s">
-        <v>1397</v>
+        <v>1406</v>
       </c>
       <c r="K10" t="s">
         <v>29</v>
@@ -5010,11 +5037,11 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>1148</v>
+        <v>1157</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -5025,7 +5052,7 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>1157</v>
+        <v>1166</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
@@ -5039,7 +5066,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
@@ -5068,11 +5095,11 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>1149</v>
+        <v>1158</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
@@ -5090,11 +5117,11 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>1150</v>
+        <v>1159</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -5112,11 +5139,11 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -5134,11 +5161,11 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -5156,11 +5183,11 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>1104</v>
+        <v>1113</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>1153</v>
+        <v>1162</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -5178,11 +5205,11 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>1154</v>
+        <v>1163</v>
       </c>
       <c r="E18" t="s">
         <v>50</v>
@@ -5200,11 +5227,11 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>1104</v>
+        <v>1113</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>1155</v>
+        <v>1164</v>
       </c>
       <c r="E19" t="s">
         <v>52</v>
@@ -5222,7 +5249,7 @@
         <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
@@ -5237,7 +5264,7 @@
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="s">
-        <v>1398</v>
+        <v>1407</v>
       </c>
       <c r="K20" t="s">
         <v>54</v>
@@ -5251,11 +5278,11 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>1105</v>
+        <v>1114</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>1156</v>
+        <v>1165</v>
       </c>
       <c r="E21" t="s">
         <v>57</v>
@@ -5273,11 +5300,11 @@
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>1157</v>
+        <v>1166</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
@@ -5295,11 +5322,11 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>1158</v>
+        <v>1167</v>
       </c>
       <c r="E23" t="s">
         <v>63</v>
@@ -5317,7 +5344,7 @@
         <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
@@ -5332,7 +5359,7 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>1399</v>
+        <v>1408</v>
       </c>
       <c r="K24" t="s">
         <v>66</v>
@@ -5346,7 +5373,7 @@
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
@@ -5361,7 +5388,7 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" t="s">
-        <v>1400</v>
+        <v>1409</v>
       </c>
       <c r="K25" t="s">
         <v>69</v>
@@ -5375,11 +5402,11 @@
         <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>1107</v>
+        <v>1116</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>1159</v>
+        <v>1168</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
@@ -5397,11 +5424,11 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>1160</v>
+        <v>1169</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
@@ -5419,11 +5446,11 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>1108</v>
+        <v>1117</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>1161</v>
+        <v>1170</v>
       </c>
       <c r="E28" t="s">
         <v>78</v>
@@ -5441,11 +5468,11 @@
         <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>1162</v>
+        <v>1171</v>
       </c>
       <c r="E29" t="s">
         <v>80</v>
@@ -5463,7 +5490,7 @@
         <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
@@ -5478,7 +5505,7 @@
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>1401</v>
+        <v>1410</v>
       </c>
       <c r="K30" t="s">
         <v>82</v>
@@ -5492,7 +5519,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
@@ -5507,7 +5534,7 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>1402</v>
+        <v>1411</v>
       </c>
       <c r="K31" t="s">
         <v>84</v>
@@ -5521,11 +5548,11 @@
         <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>1109</v>
+        <v>1118</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>1163</v>
+        <v>1172</v>
       </c>
       <c r="E32" t="s">
         <v>86</v>
@@ -5543,7 +5570,7 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
@@ -5558,7 +5585,7 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="K33" t="s">
         <v>89</v>
@@ -5572,7 +5599,7 @@
         <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
@@ -5587,7 +5614,7 @@
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="s">
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="K34" t="s">
         <v>92</v>
@@ -5601,11 +5628,11 @@
         <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>1164</v>
+        <v>1173</v>
       </c>
       <c r="E35" t="s">
         <v>95</v>
@@ -5623,7 +5650,7 @@
         <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
@@ -5638,7 +5665,7 @@
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36" t="s">
-        <v>1405</v>
+        <v>1414</v>
       </c>
       <c r="K36" t="s">
         <v>98</v>
@@ -5652,7 +5679,7 @@
         <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
@@ -5667,7 +5694,7 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37" t="s">
-        <v>1406</v>
+        <v>1415</v>
       </c>
       <c r="K37" t="s">
         <v>101</v>
@@ -5681,11 +5708,11 @@
         <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="E38" t="s">
         <v>103</v>
@@ -5703,7 +5730,7 @@
         <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
@@ -5718,7 +5745,7 @@
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="s">
-        <v>1407</v>
+        <v>1416</v>
       </c>
       <c r="K39" t="s">
         <v>105</v>
@@ -5732,11 +5759,11 @@
         <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>1166</v>
+        <v>1175</v>
       </c>
       <c r="E40" t="s">
         <v>107</v>
@@ -5754,11 +5781,11 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>1167</v>
+        <v>1176</v>
       </c>
       <c r="E41" t="s">
         <v>110</v>
@@ -5769,7 +5796,7 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41" t="s">
-        <v>1408</v>
+        <v>1417</v>
       </c>
       <c r="K41" t="s">
         <v>112</v>
@@ -5783,11 +5810,11 @@
         <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>1168</v>
+        <v>1177</v>
       </c>
       <c r="E42" t="s">
         <v>114</v>
@@ -5805,11 +5832,11 @@
         <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>1169</v>
+        <v>1178</v>
       </c>
       <c r="E43" t="s">
         <v>117</v>
@@ -5827,11 +5854,11 @@
         <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>1170</v>
+        <v>1179</v>
       </c>
       <c r="E44" t="s">
         <v>120</v>
@@ -5849,11 +5876,11 @@
         <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>1171</v>
+        <v>1180</v>
       </c>
       <c r="E45" t="s">
         <v>123</v>
@@ -5871,11 +5898,11 @@
         <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>1172</v>
+        <v>1181</v>
       </c>
       <c r="E46" t="s">
         <v>126</v>
@@ -5893,11 +5920,11 @@
         <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>1173</v>
+        <v>1182</v>
       </c>
       <c r="E47" t="s">
         <v>129</v>
@@ -5908,7 +5935,7 @@
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47" t="s">
-        <v>1409</v>
+        <v>1418</v>
       </c>
       <c r="K47" t="s">
         <v>131</v>
@@ -5922,11 +5949,11 @@
         <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>1174</v>
+        <v>1183</v>
       </c>
       <c r="E48" t="s">
         <v>134</v>
@@ -5937,7 +5964,7 @@
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48" t="s">
-        <v>1410</v>
+        <v>1419</v>
       </c>
       <c r="K48" t="s">
         <v>136</v>
@@ -5951,11 +5978,11 @@
         <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>1111</v>
+        <v>1120</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>1175</v>
+        <v>1184</v>
       </c>
       <c r="E49" t="s">
         <v>139</v>
@@ -5966,7 +5993,7 @@
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" t="s">
-        <v>1411</v>
+        <v>1420</v>
       </c>
       <c r="K49" t="s">
         <v>141</v>
@@ -5980,11 +6007,11 @@
         <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>1176</v>
+        <v>1185</v>
       </c>
       <c r="E50" t="s">
         <v>144</v>
@@ -5995,7 +6022,7 @@
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50" t="s">
-        <v>1412</v>
+        <v>1421</v>
       </c>
       <c r="K50" t="s">
         <v>146</v>
@@ -6009,11 +6036,11 @@
         <v>148</v>
       </c>
       <c r="B51" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>1177</v>
+        <v>1186</v>
       </c>
       <c r="E51" t="s">
         <v>148</v>
@@ -6031,11 +6058,11 @@
         <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>1178</v>
+        <v>1187</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -6053,7 +6080,7 @@
         <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
@@ -6068,7 +6095,7 @@
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>1413</v>
+        <v>1422</v>
       </c>
       <c r="K53" t="s">
         <v>153</v>
@@ -6082,7 +6109,7 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="s">
@@ -6097,7 +6124,7 @@
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>1414</v>
+        <v>1423</v>
       </c>
       <c r="K54" t="s">
         <v>155</v>
@@ -6111,11 +6138,11 @@
         <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>1179</v>
+        <v>1188</v>
       </c>
       <c r="E55" t="s">
         <v>157</v>
@@ -6133,7 +6160,7 @@
         <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
@@ -6148,7 +6175,7 @@
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56" t="s">
-        <v>1415</v>
+        <v>1424</v>
       </c>
       <c r="K56" t="s">
         <v>159</v>
@@ -6162,11 +6189,11 @@
         <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C57"/>
       <c r="D57" t="s">
-        <v>1180</v>
+        <v>1189</v>
       </c>
       <c r="E57" t="s">
         <v>161</v>
@@ -6184,11 +6211,11 @@
         <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="s">
-        <v>1181</v>
+        <v>1190</v>
       </c>
       <c r="E58" t="s">
         <v>164</v>
@@ -6206,11 +6233,11 @@
         <v>166</v>
       </c>
       <c r="B59" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>1182</v>
+        <v>1191</v>
       </c>
       <c r="E59" t="s">
         <v>167</v>
@@ -6228,11 +6255,11 @@
         <v>169</v>
       </c>
       <c r="B60" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
-        <v>1183</v>
+        <v>1192</v>
       </c>
       <c r="E60" t="s">
         <v>170</v>
@@ -6250,11 +6277,11 @@
         <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>1184</v>
+        <v>1193</v>
       </c>
       <c r="E61" t="s">
         <v>173</v>
@@ -6272,11 +6299,11 @@
         <v>175</v>
       </c>
       <c r="B62" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C62"/>
       <c r="D62" t="s">
-        <v>1185</v>
+        <v>1194</v>
       </c>
       <c r="E62" t="s">
         <v>175</v>
@@ -6294,11 +6321,11 @@
         <v>177</v>
       </c>
       <c r="B63" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="s">
-        <v>1186</v>
+        <v>1195</v>
       </c>
       <c r="E63" t="s">
         <v>177</v>
@@ -6316,7 +6343,7 @@
         <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="s">
@@ -6331,7 +6358,7 @@
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64" t="s">
-        <v>1416</v>
+        <v>1425</v>
       </c>
       <c r="K64" t="s">
         <v>180</v>
@@ -6345,7 +6372,7 @@
         <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C65"/>
       <c r="D65" t="s">
@@ -6360,7 +6387,7 @@
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="s">
-        <v>1417</v>
+        <v>1426</v>
       </c>
       <c r="K65" t="s">
         <v>183</v>
@@ -6374,11 +6401,11 @@
         <v>185</v>
       </c>
       <c r="B66" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C66"/>
       <c r="D66" t="s">
-        <v>1187</v>
+        <v>1196</v>
       </c>
       <c r="E66" t="s">
         <v>185</v>
@@ -6396,11 +6423,11 @@
         <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="s">
-        <v>1188</v>
+        <v>1197</v>
       </c>
       <c r="E67" t="s">
         <v>188</v>
@@ -6418,11 +6445,11 @@
         <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>1113</v>
+        <v>1122</v>
       </c>
       <c r="C68"/>
       <c r="D68" t="s">
-        <v>1189</v>
+        <v>1198</v>
       </c>
       <c r="E68" t="s">
         <v>191</v>
@@ -6440,11 +6467,11 @@
         <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C69"/>
       <c r="D69" t="s">
-        <v>1190</v>
+        <v>1199</v>
       </c>
       <c r="E69" t="s">
         <v>194</v>
@@ -6462,11 +6489,11 @@
         <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C70"/>
       <c r="D70" t="s">
-        <v>1191</v>
+        <v>1200</v>
       </c>
       <c r="E70" t="s">
         <v>196</v>
@@ -6484,7 +6511,7 @@
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="s">
@@ -6499,7 +6526,7 @@
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71" t="s">
-        <v>1418</v>
+        <v>1427</v>
       </c>
       <c r="K71" t="s">
         <v>198</v>
@@ -6513,7 +6540,7 @@
         <v>200</v>
       </c>
       <c r="B72" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="s">
@@ -6528,7 +6555,7 @@
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72" t="s">
-        <v>1419</v>
+        <v>1428</v>
       </c>
       <c r="K72" t="s">
         <v>201</v>
@@ -6542,11 +6569,11 @@
         <v>203</v>
       </c>
       <c r="B73" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="s">
-        <v>1192</v>
+        <v>1201</v>
       </c>
       <c r="E73" t="s">
         <v>204</v>
@@ -6564,7 +6591,7 @@
         <v>206</v>
       </c>
       <c r="B74" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C74"/>
       <c r="D74" t="s">
@@ -6579,7 +6606,7 @@
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="K74" t="s">
         <v>206</v>
@@ -6593,7 +6620,7 @@
         <v>208</v>
       </c>
       <c r="B75" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
@@ -6608,7 +6635,7 @@
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="K75" t="s">
         <v>206</v>
@@ -6622,7 +6649,7 @@
         <v>209</v>
       </c>
       <c r="B76" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
@@ -6637,7 +6664,7 @@
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="K76" t="s">
         <v>206</v>
@@ -6651,7 +6678,7 @@
         <v>210</v>
       </c>
       <c r="B77" t="s">
-        <v>1114</v>
+        <v>1123</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
@@ -6666,7 +6693,7 @@
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="K77" t="s">
         <v>206</v>
@@ -6680,7 +6707,7 @@
         <v>211</v>
       </c>
       <c r="B78" t="s">
-        <v>1114</v>
+        <v>1123</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
@@ -6695,7 +6722,7 @@
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="K78" t="s">
         <v>206</v>
@@ -6709,7 +6736,7 @@
         <v>212</v>
       </c>
       <c r="B79" t="s">
-        <v>1115</v>
+        <v>1124</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
@@ -6724,7 +6751,7 @@
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="K79" t="s">
         <v>206</v>
@@ -6738,7 +6765,7 @@
         <v>213</v>
       </c>
       <c r="B80" t="s">
-        <v>1114</v>
+        <v>1123</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
@@ -6753,7 +6780,7 @@
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>1421</v>
+        <v>1430</v>
       </c>
       <c r="K80" t="s">
         <v>214</v>
@@ -6767,11 +6794,11 @@
         <v>216</v>
       </c>
       <c r="B81" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>1193</v>
+        <v>1202</v>
       </c>
       <c r="E81" t="s">
         <v>216</v>
@@ -6789,11 +6816,11 @@
         <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>1194</v>
+        <v>1203</v>
       </c>
       <c r="E82" t="s">
         <v>219</v>
@@ -6811,11 +6838,11 @@
         <v>221</v>
       </c>
       <c r="B83" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>1195</v>
+        <v>1204</v>
       </c>
       <c r="E83" t="s">
         <v>221</v>
@@ -6833,7 +6860,7 @@
         <v>223</v>
       </c>
       <c r="B84" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
@@ -6848,7 +6875,7 @@
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84" t="s">
-        <v>1422</v>
+        <v>1431</v>
       </c>
       <c r="K84" t="s">
         <v>223</v>
@@ -6862,11 +6889,11 @@
         <v>225</v>
       </c>
       <c r="B85" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>1196</v>
+        <v>1205</v>
       </c>
       <c r="E85" t="s">
         <v>226</v>
@@ -6884,11 +6911,11 @@
         <v>228</v>
       </c>
       <c r="B86" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>1197</v>
+        <v>1206</v>
       </c>
       <c r="E86" t="s">
         <v>228</v>
@@ -6906,11 +6933,11 @@
         <v>230</v>
       </c>
       <c r="B87" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>1198</v>
+        <v>1207</v>
       </c>
       <c r="E87" t="s">
         <v>231</v>
@@ -6928,11 +6955,11 @@
         <v>233</v>
       </c>
       <c r="B88" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>1199</v>
+        <v>1208</v>
       </c>
       <c r="E88" t="s">
         <v>233</v>
@@ -6950,7 +6977,7 @@
         <v>235</v>
       </c>
       <c r="B89" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
@@ -6965,7 +6992,7 @@
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="s">
-        <v>1423</v>
+        <v>1432</v>
       </c>
       <c r="K89" t="s">
         <v>84</v>
@@ -6979,11 +7006,11 @@
         <v>237</v>
       </c>
       <c r="B90" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>1200</v>
+        <v>1209</v>
       </c>
       <c r="E90" t="s">
         <v>238</v>
@@ -7001,11 +7028,11 @@
         <v>240</v>
       </c>
       <c r="B91" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
       <c r="E91" t="s">
         <v>240</v>
@@ -7023,7 +7050,7 @@
         <v>242</v>
       </c>
       <c r="B92" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
@@ -7038,7 +7065,7 @@
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92" t="s">
-        <v>1424</v>
+        <v>1433</v>
       </c>
       <c r="K92" t="s">
         <v>243</v>
@@ -7052,7 +7079,7 @@
         <v>245</v>
       </c>
       <c r="B93" t="s">
-        <v>1116</v>
+        <v>1125</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
@@ -7067,7 +7094,7 @@
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93" t="s">
-        <v>1424</v>
+        <v>1433</v>
       </c>
       <c r="K93" t="s">
         <v>243</v>
@@ -7081,11 +7108,11 @@
         <v>246</v>
       </c>
       <c r="B94" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>1202</v>
+        <v>1211</v>
       </c>
       <c r="E94" t="s">
         <v>247</v>
@@ -7096,7 +7123,7 @@
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="s">
-        <v>1425</v>
+        <v>1434</v>
       </c>
       <c r="K94" t="s">
         <v>249</v>
@@ -7110,11 +7137,11 @@
         <v>251</v>
       </c>
       <c r="B95" t="s">
-        <v>1117</v>
+        <v>1126</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>1203</v>
+        <v>1212</v>
       </c>
       <c r="E95" t="s">
         <v>252</v>
@@ -7125,7 +7152,7 @@
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="s">
-        <v>1426</v>
+        <v>1435</v>
       </c>
       <c r="K95" t="s">
         <v>254</v>
@@ -7139,11 +7166,11 @@
         <v>256</v>
       </c>
       <c r="B96" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>1204</v>
+        <v>1213</v>
       </c>
       <c r="E96" t="s">
         <v>257</v>
@@ -7154,7 +7181,7 @@
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96" t="s">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="K96" t="s">
         <v>259</v>
@@ -7168,11 +7195,11 @@
         <v>261</v>
       </c>
       <c r="B97" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>1205</v>
+        <v>1214</v>
       </c>
       <c r="E97" t="s">
         <v>262</v>
@@ -7183,7 +7210,7 @@
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97" t="s">
-        <v>1428</v>
+        <v>1437</v>
       </c>
       <c r="K97" t="s">
         <v>264</v>
@@ -7197,7 +7224,7 @@
         <v>266</v>
       </c>
       <c r="B98" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C98"/>
       <c r="D98" t="s">
@@ -7212,7 +7239,7 @@
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="s">
-        <v>1429</v>
+        <v>1438</v>
       </c>
       <c r="K98" t="s">
         <v>267</v>
@@ -7226,11 +7253,11 @@
         <v>269</v>
       </c>
       <c r="B99" t="s">
-        <v>1118</v>
+        <v>1127</v>
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>1206</v>
+        <v>1215</v>
       </c>
       <c r="E99" t="s">
         <v>270</v>
@@ -7241,7 +7268,7 @@
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99" t="s">
-        <v>1430</v>
+        <v>1439</v>
       </c>
       <c r="K99" t="s">
         <v>272</v>
@@ -7255,11 +7282,11 @@
         <v>274</v>
       </c>
       <c r="B100" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>1207</v>
+        <v>1216</v>
       </c>
       <c r="E100" t="s">
         <v>275</v>
@@ -7270,7 +7297,7 @@
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100" t="s">
-        <v>1431</v>
+        <v>1440</v>
       </c>
       <c r="K100" t="s">
         <v>277</v>
@@ -7284,7 +7311,7 @@
         <v>279</v>
       </c>
       <c r="B101" t="s">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
@@ -7299,7 +7326,7 @@
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="s">
-        <v>1432</v>
+        <v>1441</v>
       </c>
       <c r="K101" t="s">
         <v>279</v>
@@ -7313,11 +7340,11 @@
         <v>281</v>
       </c>
       <c r="B102" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>1208</v>
+        <v>1217</v>
       </c>
       <c r="E102" t="s">
         <v>282</v>
@@ -7335,11 +7362,11 @@
         <v>284</v>
       </c>
       <c r="B103" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>1208</v>
+        <v>1217</v>
       </c>
       <c r="E103" t="s">
         <v>282</v>
@@ -7357,7 +7384,7 @@
         <v>285</v>
       </c>
       <c r="B104" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
@@ -7372,7 +7399,7 @@
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104" t="s">
-        <v>1433</v>
+        <v>1442</v>
       </c>
       <c r="K104" t="s">
         <v>286</v>
@@ -7386,7 +7413,7 @@
         <v>288</v>
       </c>
       <c r="B105" t="s">
-        <v>1114</v>
+        <v>1123</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
@@ -7401,7 +7428,7 @@
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="s">
-        <v>1434</v>
+        <v>1443</v>
       </c>
       <c r="K105" t="s">
         <v>289</v>
@@ -7415,11 +7442,11 @@
         <v>291</v>
       </c>
       <c r="B106" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
-        <v>1209</v>
+        <v>1218</v>
       </c>
       <c r="E106" t="s">
         <v>59</v>
@@ -7437,7 +7464,7 @@
         <v>293</v>
       </c>
       <c r="B107" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="s">
@@ -7452,7 +7479,7 @@
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107" t="s">
-        <v>1435</v>
+        <v>1444</v>
       </c>
       <c r="K107" t="s">
         <v>293</v>
@@ -7466,11 +7493,11 @@
         <v>295</v>
       </c>
       <c r="B108" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="E108" t="s">
         <v>74</v>
@@ -7488,11 +7515,11 @@
         <v>297</v>
       </c>
       <c r="B109" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C109"/>
       <c r="D109" t="s">
-        <v>1211</v>
+        <v>1220</v>
       </c>
       <c r="E109" t="s">
         <v>298</v>
@@ -7503,7 +7530,7 @@
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="s">
-        <v>1436</v>
+        <v>1445</v>
       </c>
       <c r="K109" t="s">
         <v>300</v>
@@ -7517,11 +7544,11 @@
         <v>302</v>
       </c>
       <c r="B110" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C110"/>
       <c r="D110" t="s">
-        <v>1212</v>
+        <v>1221</v>
       </c>
       <c r="E110" t="s">
         <v>302</v>
@@ -7539,11 +7566,11 @@
         <v>304</v>
       </c>
       <c r="B111" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C111"/>
       <c r="D111" t="s">
-        <v>1213</v>
+        <v>1222</v>
       </c>
       <c r="E111" t="s">
         <v>305</v>
@@ -7561,7 +7588,7 @@
         <v>307</v>
       </c>
       <c r="B112" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C112"/>
       <c r="D112" t="s">
@@ -7576,7 +7603,7 @@
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112" t="s">
-        <v>1437</v>
+        <v>1446</v>
       </c>
       <c r="K112" t="s">
         <v>307</v>
@@ -7590,11 +7617,11 @@
         <v>309</v>
       </c>
       <c r="B113" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C113"/>
       <c r="D113" t="s">
-        <v>1214</v>
+        <v>1223</v>
       </c>
       <c r="E113" t="s">
         <v>309</v>
@@ -7612,11 +7639,11 @@
         <v>311</v>
       </c>
       <c r="B114" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C114"/>
       <c r="D114" t="s">
-        <v>1215</v>
+        <v>1224</v>
       </c>
       <c r="E114" t="s">
         <v>312</v>
@@ -7634,11 +7661,11 @@
         <v>314</v>
       </c>
       <c r="B115" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C115"/>
       <c r="D115" t="s">
-        <v>1216</v>
+        <v>1225</v>
       </c>
       <c r="E115" t="s">
         <v>315</v>
@@ -7656,11 +7683,11 @@
         <v>317</v>
       </c>
       <c r="B116" t="s">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="C116"/>
       <c r="D116" t="s">
-        <v>1217</v>
+        <v>1226</v>
       </c>
       <c r="E116" t="s">
         <v>318</v>
@@ -7669,14 +7696,14 @@
         <v>319</v>
       </c>
       <c r="G116" t="s">
-        <v>1395</v>
+        <v>1404</v>
       </c>
       <c r="H116"/>
       <c r="I116" t="s">
         <v>320</v>
       </c>
       <c r="J116" t="s">
-        <v>1438</v>
+        <v>1447</v>
       </c>
       <c r="K116" t="s">
         <v>321</v>
@@ -7690,11 +7717,11 @@
         <v>323</v>
       </c>
       <c r="B117" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C117"/>
       <c r="D117" t="s">
-        <v>1218</v>
+        <v>1227</v>
       </c>
       <c r="E117" t="s">
         <v>323</v>
@@ -7712,11 +7739,11 @@
         <v>325</v>
       </c>
       <c r="B118" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
-        <v>1219</v>
+        <v>1228</v>
       </c>
       <c r="E118" t="s">
         <v>325</v>
@@ -7734,7 +7761,7 @@
         <v>327</v>
       </c>
       <c r="B119" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C119"/>
       <c r="D119" t="s">
@@ -7749,7 +7776,7 @@
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119" t="s">
-        <v>1439</v>
+        <v>1448</v>
       </c>
       <c r="K119" t="s">
         <v>327</v>
@@ -7763,11 +7790,11 @@
         <v>329</v>
       </c>
       <c r="B120" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
-        <v>1220</v>
+        <v>1229</v>
       </c>
       <c r="E120" t="s">
         <v>329</v>
@@ -7785,11 +7812,11 @@
         <v>331</v>
       </c>
       <c r="B121" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
-        <v>1221</v>
+        <v>1230</v>
       </c>
       <c r="E121" t="s">
         <v>332</v>
@@ -7807,11 +7834,11 @@
         <v>334</v>
       </c>
       <c r="B122" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
-        <v>1222</v>
+        <v>1231</v>
       </c>
       <c r="E122" t="s">
         <v>334</v>
@@ -7829,7 +7856,7 @@
         <v>336</v>
       </c>
       <c r="B123" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C123"/>
       <c r="D123" t="s">
@@ -7844,7 +7871,7 @@
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="s">
-        <v>1440</v>
+        <v>1449</v>
       </c>
       <c r="K123" t="s">
         <v>336</v>
@@ -7858,7 +7885,7 @@
         <v>338</v>
       </c>
       <c r="B124" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="C124"/>
       <c r="D124" t="s">
@@ -7873,7 +7900,7 @@
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124" t="s">
-        <v>1441</v>
+        <v>1450</v>
       </c>
       <c r="K124" t="s">
         <v>338</v>
@@ -7887,11 +7914,11 @@
         <v>340</v>
       </c>
       <c r="B125" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C125"/>
       <c r="D125" t="s">
-        <v>1223</v>
+        <v>1232</v>
       </c>
       <c r="E125" t="s">
         <v>340</v>
@@ -7909,11 +7936,11 @@
         <v>342</v>
       </c>
       <c r="B126" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C126"/>
       <c r="D126" t="s">
-        <v>1224</v>
+        <v>1233</v>
       </c>
       <c r="E126" t="s">
         <v>343</v>
@@ -7931,11 +7958,11 @@
         <v>345</v>
       </c>
       <c r="B127" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C127"/>
       <c r="D127" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
       <c r="E127" t="s">
         <v>345</v>
@@ -7953,7 +7980,7 @@
         <v>347</v>
       </c>
       <c r="B128" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="C128"/>
       <c r="D128" t="s">
@@ -7968,7 +7995,7 @@
       <c r="H128"/>
       <c r="I128"/>
       <c r="J128" t="s">
-        <v>1442</v>
+        <v>1451</v>
       </c>
       <c r="K128" t="s">
         <v>348</v>
@@ -7982,7 +8009,7 @@
         <v>350</v>
       </c>
       <c r="B129" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="s">
@@ -7997,7 +8024,7 @@
       <c r="H129"/>
       <c r="I129"/>
       <c r="J129" t="s">
-        <v>1443</v>
+        <v>1452</v>
       </c>
       <c r="K129" t="s">
         <v>350</v>
@@ -8011,11 +8038,11 @@
         <v>352</v>
       </c>
       <c r="B130" t="s">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="C130"/>
       <c r="D130" t="s">
-        <v>1226</v>
+        <v>1235</v>
       </c>
       <c r="E130" t="s">
         <v>353</v>
@@ -8033,7 +8060,7 @@
         <v>355</v>
       </c>
       <c r="B131" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C131"/>
       <c r="D131" t="s">
@@ -8048,7 +8075,7 @@
       <c r="H131"/>
       <c r="I131"/>
       <c r="J131" t="s">
-        <v>1444</v>
+        <v>1453</v>
       </c>
       <c r="K131" t="s">
         <v>355</v>
@@ -8062,7 +8089,7 @@
         <v>357</v>
       </c>
       <c r="B132" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C132"/>
       <c r="D132" t="s">
@@ -8077,7 +8104,7 @@
       <c r="H132"/>
       <c r="I132"/>
       <c r="J132" t="s">
-        <v>1445</v>
+        <v>1454</v>
       </c>
       <c r="K132" t="s">
         <v>358</v>
@@ -8091,7 +8118,7 @@
         <v>360</v>
       </c>
       <c r="B133" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C133"/>
       <c r="D133" t="s">
@@ -8106,7 +8133,7 @@
       <c r="H133"/>
       <c r="I133"/>
       <c r="J133" t="s">
-        <v>1446</v>
+        <v>1455</v>
       </c>
       <c r="K133" t="s">
         <v>361</v>
@@ -8120,7 +8147,7 @@
         <v>363</v>
       </c>
       <c r="B134" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C134"/>
       <c r="D134" t="s">
@@ -8135,7 +8162,7 @@
       <c r="H134"/>
       <c r="I134"/>
       <c r="J134" t="s">
-        <v>1447</v>
+        <v>1456</v>
       </c>
       <c r="K134" t="s">
         <v>363</v>
@@ -8149,7 +8176,7 @@
         <v>365</v>
       </c>
       <c r="B135" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C135"/>
       <c r="D135" t="s">
@@ -8164,7 +8191,7 @@
       <c r="H135"/>
       <c r="I135"/>
       <c r="J135" t="s">
-        <v>1448</v>
+        <v>1457</v>
       </c>
       <c r="K135" t="s">
         <v>366</v>
@@ -8178,11 +8205,11 @@
         <v>368</v>
       </c>
       <c r="B136" t="s">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="C136"/>
       <c r="D136" t="s">
-        <v>1227</v>
+        <v>1236</v>
       </c>
       <c r="E136" t="s">
         <v>369</v>
@@ -8193,7 +8220,7 @@
       <c r="H136"/>
       <c r="I136"/>
       <c r="J136" t="s">
-        <v>1449</v>
+        <v>1458</v>
       </c>
       <c r="K136" t="s">
         <v>371</v>
@@ -8207,7 +8234,7 @@
         <v>371</v>
       </c>
       <c r="B137" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C137"/>
       <c r="D137" t="s">
@@ -8222,7 +8249,7 @@
       <c r="H137"/>
       <c r="I137"/>
       <c r="J137" t="s">
-        <v>1449</v>
+        <v>1458</v>
       </c>
       <c r="K137" t="s">
         <v>371</v>
@@ -8236,7 +8263,7 @@
         <v>373</v>
       </c>
       <c r="B138" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C138"/>
       <c r="D138" t="s">
@@ -8251,7 +8278,7 @@
       <c r="H138"/>
       <c r="I138"/>
       <c r="J138" t="s">
-        <v>1450</v>
+        <v>1459</v>
       </c>
       <c r="K138" t="s">
         <v>374</v>
@@ -8265,7 +8292,7 @@
         <v>376</v>
       </c>
       <c r="B139" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C139"/>
       <c r="D139" t="s">
@@ -8280,7 +8307,7 @@
       <c r="H139"/>
       <c r="I139"/>
       <c r="J139" t="s">
-        <v>1451</v>
+        <v>1460</v>
       </c>
       <c r="K139" t="s">
         <v>377</v>
@@ -8294,7 +8321,7 @@
         <v>379</v>
       </c>
       <c r="B140" t="s">
-        <v>1122</v>
+        <v>1131</v>
       </c>
       <c r="C140"/>
       <c r="D140" t="s">
@@ -8309,7 +8336,7 @@
       <c r="H140"/>
       <c r="I140"/>
       <c r="J140" t="s">
-        <v>1452</v>
+        <v>1461</v>
       </c>
       <c r="K140" t="s">
         <v>379</v>
@@ -8323,7 +8350,7 @@
         <v>381</v>
       </c>
       <c r="B141" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C141"/>
       <c r="D141" t="s">
@@ -8345,11 +8372,11 @@
         <v>384</v>
       </c>
       <c r="B142" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C142"/>
       <c r="D142" t="s">
-        <v>1228</v>
+        <v>1237</v>
       </c>
       <c r="E142" t="s">
         <v>385</v>
@@ -8367,11 +8394,11 @@
         <v>387</v>
       </c>
       <c r="B143" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C143"/>
       <c r="D143" t="s">
-        <v>1229</v>
+        <v>1238</v>
       </c>
       <c r="E143" t="s">
         <v>387</v>
@@ -8389,11 +8416,11 @@
         <v>389</v>
       </c>
       <c r="B144" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C144"/>
       <c r="D144" t="s">
-        <v>1230</v>
+        <v>1239</v>
       </c>
       <c r="E144" t="s">
         <v>390</v>
@@ -8411,11 +8438,11 @@
         <v>392</v>
       </c>
       <c r="B145" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C145"/>
       <c r="D145" t="s">
-        <v>1231</v>
+        <v>1240</v>
       </c>
       <c r="E145" t="s">
         <v>393</v>
@@ -8433,11 +8460,11 @@
         <v>395</v>
       </c>
       <c r="B146" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C146"/>
       <c r="D146" t="s">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="E146" t="s">
         <v>396</v>
@@ -8455,11 +8482,11 @@
         <v>398</v>
       </c>
       <c r="B147" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C147"/>
       <c r="D147" t="s">
-        <v>1233</v>
+        <v>1242</v>
       </c>
       <c r="E147" t="s">
         <v>399</v>
@@ -8477,11 +8504,11 @@
         <v>401</v>
       </c>
       <c r="B148" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C148"/>
       <c r="D148" t="s">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="E148" t="s">
         <v>402</v>
@@ -8499,7 +8526,7 @@
         <v>404</v>
       </c>
       <c r="B149" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C149"/>
       <c r="D149" t="s">
@@ -8514,7 +8541,7 @@
       <c r="H149"/>
       <c r="I149"/>
       <c r="J149" t="s">
-        <v>1453</v>
+        <v>1462</v>
       </c>
       <c r="K149" t="s">
         <v>405</v>
@@ -8528,11 +8555,11 @@
         <v>407</v>
       </c>
       <c r="B150" t="s">
-        <v>1123</v>
+        <v>1132</v>
       </c>
       <c r="C150"/>
       <c r="D150" t="s">
-        <v>1235</v>
+        <v>1244</v>
       </c>
       <c r="E150" t="s">
         <v>408</v>
@@ -8550,11 +8577,11 @@
         <v>410</v>
       </c>
       <c r="B151" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
-        <v>1236</v>
+        <v>1245</v>
       </c>
       <c r="E151" t="s">
         <v>410</v>
@@ -8572,11 +8599,11 @@
         <v>412</v>
       </c>
       <c r="B152" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
-        <v>1237</v>
+        <v>1246</v>
       </c>
       <c r="E152" t="s">
         <v>413</v>
@@ -8594,7 +8621,7 @@
         <v>415</v>
       </c>
       <c r="B153" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C153"/>
       <c r="D153" t="s">
@@ -8609,7 +8636,7 @@
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153" t="s">
-        <v>1454</v>
+        <v>1463</v>
       </c>
       <c r="K153" t="s">
         <v>415</v>
@@ -8623,7 +8650,7 @@
         <v>417</v>
       </c>
       <c r="B154" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
@@ -8638,7 +8665,7 @@
       <c r="H154"/>
       <c r="I154"/>
       <c r="J154" t="s">
-        <v>1455</v>
+        <v>1464</v>
       </c>
       <c r="K154" t="s">
         <v>417</v>
@@ -8652,7 +8679,7 @@
         <v>419</v>
       </c>
       <c r="B155" t="s">
-        <v>1124</v>
+        <v>1133</v>
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
@@ -8667,7 +8694,7 @@
       <c r="H155"/>
       <c r="I155"/>
       <c r="J155" t="s">
-        <v>1455</v>
+        <v>1464</v>
       </c>
       <c r="K155" t="s">
         <v>417</v>
@@ -8681,11 +8708,11 @@
         <v>420</v>
       </c>
       <c r="B156" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
-        <v>1238</v>
+        <v>1247</v>
       </c>
       <c r="E156" t="s">
         <v>421</v>
@@ -8696,7 +8723,7 @@
       <c r="H156"/>
       <c r="I156"/>
       <c r="J156" t="s">
-        <v>1456</v>
+        <v>1465</v>
       </c>
       <c r="K156" t="s">
         <v>423</v>
@@ -8710,11 +8737,11 @@
         <v>425</v>
       </c>
       <c r="B157" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C157"/>
       <c r="D157" t="s">
-        <v>1239</v>
+        <v>1248</v>
       </c>
       <c r="E157" t="s">
         <v>426</v>
@@ -8725,7 +8752,7 @@
       <c r="H157"/>
       <c r="I157"/>
       <c r="J157" t="s">
-        <v>1457</v>
+        <v>1466</v>
       </c>
       <c r="K157" t="s">
         <v>428</v>
@@ -8739,11 +8766,11 @@
         <v>430</v>
       </c>
       <c r="B158" t="s">
-        <v>1125</v>
+        <v>1134</v>
       </c>
       <c r="C158"/>
       <c r="D158" t="s">
-        <v>1240</v>
+        <v>1249</v>
       </c>
       <c r="E158" t="s">
         <v>431</v>
@@ -8761,7 +8788,7 @@
         <v>433</v>
       </c>
       <c r="B159" t="s">
-        <v>1114</v>
+        <v>1123</v>
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
@@ -8776,7 +8803,7 @@
       <c r="H159"/>
       <c r="I159"/>
       <c r="J159" t="s">
-        <v>1421</v>
+        <v>1430</v>
       </c>
       <c r="K159" t="s">
         <v>214</v>
@@ -8790,11 +8817,11 @@
         <v>434</v>
       </c>
       <c r="B160" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
-        <v>1241</v>
+        <v>1250</v>
       </c>
       <c r="E160" t="s">
         <v>434</v>
@@ -8812,11 +8839,11 @@
         <v>436</v>
       </c>
       <c r="B161" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
-        <v>1242</v>
+        <v>1251</v>
       </c>
       <c r="E161" t="s">
         <v>437</v>
@@ -8834,11 +8861,11 @@
         <v>439</v>
       </c>
       <c r="B162" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
-        <v>1243</v>
+        <v>1252</v>
       </c>
       <c r="E162" t="s">
         <v>440</v>
@@ -8849,7 +8876,7 @@
       <c r="H162"/>
       <c r="I162"/>
       <c r="J162" t="s">
-        <v>1458</v>
+        <v>1467</v>
       </c>
       <c r="K162" t="s">
         <v>442</v>
@@ -8863,11 +8890,11 @@
         <v>444</v>
       </c>
       <c r="B163" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
-        <v>1244</v>
+        <v>1253</v>
       </c>
       <c r="E163" t="s">
         <v>445</v>
@@ -8885,7 +8912,7 @@
         <v>447</v>
       </c>
       <c r="B164" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
@@ -8900,7 +8927,7 @@
       <c r="H164"/>
       <c r="I164"/>
       <c r="J164" t="s">
-        <v>1459</v>
+        <v>1468</v>
       </c>
       <c r="K164" t="s">
         <v>448</v>
@@ -8914,11 +8941,11 @@
         <v>450</v>
       </c>
       <c r="B165" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
-        <v>1245</v>
+        <v>1254</v>
       </c>
       <c r="E165" t="s">
         <v>451</v>
@@ -8936,11 +8963,11 @@
         <v>453</v>
       </c>
       <c r="B166" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
-        <v>1246</v>
+        <v>1255</v>
       </c>
       <c r="E166" t="s">
         <v>453</v>
@@ -8958,11 +8985,11 @@
         <v>455</v>
       </c>
       <c r="B167" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>1247</v>
+        <v>1256</v>
       </c>
       <c r="E167" t="s">
         <v>455</v>
@@ -8980,11 +9007,11 @@
         <v>457</v>
       </c>
       <c r="B168" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="C168"/>
       <c r="D168" t="s">
-        <v>1248</v>
+        <v>1257</v>
       </c>
       <c r="E168" t="s">
         <v>458</v>
@@ -9002,11 +9029,11 @@
         <v>460</v>
       </c>
       <c r="B169" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C169"/>
       <c r="D169" t="s">
-        <v>1249</v>
+        <v>1258</v>
       </c>
       <c r="E169" t="s">
         <v>460</v>
@@ -9024,11 +9051,11 @@
         <v>462</v>
       </c>
       <c r="B170" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C170"/>
       <c r="D170" t="s">
-        <v>1250</v>
+        <v>1259</v>
       </c>
       <c r="E170" t="s">
         <v>463</v>
@@ -9046,11 +9073,11 @@
         <v>465</v>
       </c>
       <c r="B171" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C171"/>
       <c r="D171" t="s">
-        <v>1251</v>
+        <v>1260</v>
       </c>
       <c r="E171" t="s">
         <v>466</v>
@@ -9068,11 +9095,11 @@
         <v>468</v>
       </c>
       <c r="B172" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C172"/>
       <c r="D172" t="s">
-        <v>1252</v>
+        <v>1261</v>
       </c>
       <c r="E172" t="s">
         <v>468</v>
@@ -9090,11 +9117,11 @@
         <v>470</v>
       </c>
       <c r="B173" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C173"/>
       <c r="D173" t="s">
-        <v>1253</v>
+        <v>1262</v>
       </c>
       <c r="E173" t="s">
         <v>470</v>
@@ -9112,11 +9139,11 @@
         <v>472</v>
       </c>
       <c r="B174" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C174"/>
       <c r="D174" t="s">
-        <v>1254</v>
+        <v>1263</v>
       </c>
       <c r="E174" t="s">
         <v>472</v>
@@ -9134,11 +9161,11 @@
         <v>474</v>
       </c>
       <c r="B175" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="C175"/>
       <c r="D175" t="s">
-        <v>1255</v>
+        <v>1264</v>
       </c>
       <c r="E175" t="s">
         <v>475</v>
@@ -9156,11 +9183,11 @@
         <v>477</v>
       </c>
       <c r="B176" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C176"/>
       <c r="D176" t="s">
-        <v>1256</v>
+        <v>1265</v>
       </c>
       <c r="E176" t="s">
         <v>477</v>
@@ -9178,11 +9205,11 @@
         <v>479</v>
       </c>
       <c r="B177" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C177"/>
       <c r="D177" t="s">
-        <v>1257</v>
+        <v>1266</v>
       </c>
       <c r="E177" t="s">
         <v>480</v>
@@ -9200,11 +9227,11 @@
         <v>482</v>
       </c>
       <c r="B178" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C178"/>
       <c r="D178" t="s">
-        <v>1258</v>
+        <v>1267</v>
       </c>
       <c r="E178" t="s">
         <v>482</v>
@@ -9222,11 +9249,11 @@
         <v>484</v>
       </c>
       <c r="B179" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C179"/>
       <c r="D179" t="s">
-        <v>1259</v>
+        <v>1268</v>
       </c>
       <c r="E179" t="s">
         <v>485</v>
@@ -9244,11 +9271,11 @@
         <v>487</v>
       </c>
       <c r="B180" t="s">
-        <v>1127</v>
+        <v>1136</v>
       </c>
       <c r="C180"/>
       <c r="D180" t="s">
-        <v>1260</v>
+        <v>1269</v>
       </c>
       <c r="E180" t="s">
         <v>488</v>
@@ -9266,11 +9293,11 @@
         <v>490</v>
       </c>
       <c r="B181" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C181"/>
       <c r="D181" t="s">
-        <v>1261</v>
+        <v>1270</v>
       </c>
       <c r="E181" t="s">
         <v>490</v>
@@ -9288,11 +9315,11 @@
         <v>492</v>
       </c>
       <c r="B182" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C182"/>
       <c r="D182" t="s">
-        <v>1262</v>
+        <v>1271</v>
       </c>
       <c r="E182" t="s">
         <v>493</v>
@@ -9310,11 +9337,11 @@
         <v>495</v>
       </c>
       <c r="B183" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C183"/>
       <c r="D183" t="s">
-        <v>1263</v>
+        <v>1272</v>
       </c>
       <c r="E183" t="s">
         <v>496</v>
@@ -9332,11 +9359,11 @@
         <v>498</v>
       </c>
       <c r="B184" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C184"/>
       <c r="D184" t="s">
-        <v>1264</v>
+        <v>1273</v>
       </c>
       <c r="E184" t="s">
         <v>499</v>
@@ -9347,7 +9374,7 @@
       <c r="H184"/>
       <c r="I184"/>
       <c r="J184" t="s">
-        <v>1460</v>
+        <v>1469</v>
       </c>
       <c r="K184" t="s">
         <v>501</v>
@@ -9361,7 +9388,7 @@
         <v>503</v>
       </c>
       <c r="B185" t="s">
-        <v>1123</v>
+        <v>1132</v>
       </c>
       <c r="C185"/>
       <c r="D185" t="s">
@@ -9376,7 +9403,7 @@
       <c r="H185"/>
       <c r="I185"/>
       <c r="J185" t="s">
-        <v>1461</v>
+        <v>1470</v>
       </c>
       <c r="K185" t="s">
         <v>504</v>
@@ -9390,7 +9417,7 @@
         <v>506</v>
       </c>
       <c r="B186" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="C186"/>
       <c r="D186" t="s">
@@ -9405,7 +9432,7 @@
       <c r="H186"/>
       <c r="I186"/>
       <c r="J186" t="s">
-        <v>1423</v>
+        <v>1432</v>
       </c>
       <c r="K186" t="s">
         <v>84</v>
@@ -9419,7 +9446,7 @@
         <v>507</v>
       </c>
       <c r="B187" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="C187"/>
       <c r="D187" t="s">
@@ -9434,7 +9461,7 @@
       <c r="H187"/>
       <c r="I187"/>
       <c r="J187" t="s">
-        <v>1462</v>
+        <v>1471</v>
       </c>
       <c r="K187" t="s">
         <v>508</v>
@@ -9448,11 +9475,11 @@
         <v>510</v>
       </c>
       <c r="B188" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C188"/>
       <c r="D188" t="s">
-        <v>1265</v>
+        <v>1274</v>
       </c>
       <c r="E188" t="s">
         <v>511</v>
@@ -9470,17 +9497,14 @@
         <v>513</v>
       </c>
       <c r="B189" t="s">
-        <v>1096</v>
+        <v>13</v>
       </c>
       <c r="C189"/>
-      <c r="D189" t="s">
-        <v>1266</v>
-      </c>
       <c r="E189" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F189" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H189"/>
       <c r="I189"/>
@@ -9489,14 +9513,14 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B190" t="s">
-        <v>1128</v>
+        <v>1105</v>
       </c>
       <c r="C190"/>
       <c r="D190" t="s">
-        <v>1267</v>
+        <v>1275</v>
       </c>
       <c r="E190" t="s">
         <v>516</v>
@@ -9506,48 +9530,48 @@
       </c>
       <c r="H190"/>
       <c r="I190"/>
-      <c r="J190" t="s">
-        <v>1463</v>
-      </c>
-      <c r="K190" t="s">
-        <v>518</v>
-      </c>
-      <c r="L190" t="s">
-        <v>519</v>
-      </c>
+      <c r="K190"/>
+      <c r="L190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B191" t="s">
-        <v>1096</v>
+        <v>1137</v>
       </c>
       <c r="C191"/>
       <c r="D191" t="s">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="E191" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F191" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H191"/>
       <c r="I191"/>
-      <c r="K191"/>
-      <c r="L191"/>
+      <c r="J191" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K191" t="s">
+        <v>521</v>
+      </c>
+      <c r="L191" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
         <v>523</v>
       </c>
       <c r="B192" t="s">
-        <v>1123</v>
+        <v>1105</v>
       </c>
       <c r="C192"/>
       <c r="D192" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="E192" t="s">
         <v>524</v>
@@ -9565,11 +9589,11 @@
         <v>526</v>
       </c>
       <c r="B193" t="s">
-        <v>1096</v>
+        <v>1132</v>
       </c>
       <c r="C193"/>
       <c r="D193" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="E193" t="s">
         <v>527</v>
@@ -9579,54 +9603,54 @@
       </c>
       <c r="H193"/>
       <c r="I193"/>
-      <c r="J193" t="s">
-        <v>1464</v>
-      </c>
-      <c r="K193" t="s">
-        <v>529</v>
-      </c>
-      <c r="L193" t="s">
-        <v>530</v>
-      </c>
+      <c r="K193"/>
+      <c r="L193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B194" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C194"/>
       <c r="D194" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="E194" t="s">
+        <v>530</v>
+      </c>
+      <c r="F194" t="s">
         <v>531</v>
-      </c>
-      <c r="F194" t="s">
-        <v>532</v>
       </c>
       <c r="H194"/>
       <c r="I194"/>
-      <c r="K194"/>
-      <c r="L194"/>
+      <c r="J194" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K194" t="s">
+        <v>532</v>
+      </c>
+      <c r="L194" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B195" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C195"/>
       <c r="D195" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
       <c r="E195" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F195" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H195"/>
       <c r="I195"/>
@@ -9635,14 +9659,14 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B196" t="s">
-        <v>1129</v>
+        <v>1105</v>
       </c>
       <c r="C196"/>
       <c r="D196" t="s">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="E196" t="s">
         <v>536</v>
@@ -9660,11 +9684,11 @@
         <v>538</v>
       </c>
       <c r="B197" t="s">
-        <v>1096</v>
+        <v>1138</v>
       </c>
       <c r="C197"/>
       <c r="D197" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="E197" t="s">
         <v>539</v>
@@ -9682,17 +9706,17 @@
         <v>541</v>
       </c>
       <c r="B198" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C198"/>
       <c r="D198" t="s">
-        <v>1275</v>
+        <v>1283</v>
       </c>
       <c r="E198" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F198" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H198"/>
       <c r="I198"/>
@@ -9701,14 +9725,14 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B199" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C199"/>
       <c r="D199" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="E199" t="s">
         <v>544</v>
@@ -9726,11 +9750,11 @@
         <v>546</v>
       </c>
       <c r="B200" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C200"/>
       <c r="D200" t="s">
-        <v>1277</v>
+        <v>1285</v>
       </c>
       <c r="E200" t="s">
         <v>547</v>
@@ -9740,48 +9764,48 @@
       </c>
       <c r="H200"/>
       <c r="I200"/>
-      <c r="J200" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K200" t="s">
-        <v>549</v>
-      </c>
-      <c r="L200" t="s">
-        <v>550</v>
-      </c>
+      <c r="K200"/>
+      <c r="L200"/>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B201" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C201"/>
       <c r="D201" t="s">
-        <v>1278</v>
+        <v>1286</v>
       </c>
       <c r="E201" t="s">
+        <v>550</v>
+      </c>
+      <c r="F201" t="s">
         <v>551</v>
-      </c>
-      <c r="F201" t="s">
-        <v>552</v>
       </c>
       <c r="H201"/>
       <c r="I201"/>
-      <c r="K201"/>
-      <c r="L201"/>
+      <c r="J201" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K201" t="s">
+        <v>552</v>
+      </c>
+      <c r="L201" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B202" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C202"/>
       <c r="D202" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
       <c r="E202" t="s">
         <v>554</v>
@@ -9799,11 +9823,11 @@
         <v>556</v>
       </c>
       <c r="B203" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="C203"/>
       <c r="D203" t="s">
-        <v>1280</v>
+        <v>1288</v>
       </c>
       <c r="E203" t="s">
         <v>557</v>
@@ -9821,11 +9845,11 @@
         <v>559</v>
       </c>
       <c r="B204" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C204"/>
       <c r="D204" t="s">
-        <v>1281</v>
+        <v>1289</v>
       </c>
       <c r="E204" t="s">
         <v>560</v>
@@ -9843,11 +9867,11 @@
         <v>562</v>
       </c>
       <c r="B205" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C205"/>
       <c r="D205" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="E205" t="s">
         <v>563</v>
@@ -9865,11 +9889,11 @@
         <v>565</v>
       </c>
       <c r="B206" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C206"/>
       <c r="D206" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="E206" t="s">
         <v>566</v>
@@ -9887,11 +9911,11 @@
         <v>568</v>
       </c>
       <c r="B207" t="s">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="C207"/>
       <c r="D207" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
       <c r="E207" t="s">
         <v>569</v>
@@ -9901,48 +9925,48 @@
       </c>
       <c r="H207"/>
       <c r="I207"/>
-      <c r="J207" t="s">
-        <v>1466</v>
-      </c>
-      <c r="K207" t="s">
-        <v>571</v>
-      </c>
-      <c r="L207" t="s">
-        <v>572</v>
-      </c>
+      <c r="K207"/>
+      <c r="L207"/>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B208" t="s">
-        <v>1129</v>
+        <v>1105</v>
       </c>
       <c r="C208"/>
       <c r="D208" t="s">
-        <v>1285</v>
+        <v>1293</v>
       </c>
       <c r="E208" t="s">
+        <v>572</v>
+      </c>
+      <c r="F208" t="s">
         <v>573</v>
-      </c>
-      <c r="F208" t="s">
-        <v>574</v>
       </c>
       <c r="H208"/>
       <c r="I208"/>
-      <c r="K208"/>
-      <c r="L208"/>
+      <c r="J208" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K208" t="s">
+        <v>574</v>
+      </c>
+      <c r="L208" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B209" t="s">
-        <v>1115</v>
+        <v>1138</v>
       </c>
       <c r="C209"/>
       <c r="D209" t="s">
-        <v>1286</v>
+        <v>1294</v>
       </c>
       <c r="E209" t="s">
         <v>576</v>
@@ -9960,11 +9984,11 @@
         <v>578</v>
       </c>
       <c r="B210" t="s">
-        <v>1096</v>
+        <v>1124</v>
       </c>
       <c r="C210"/>
       <c r="D210" t="s">
-        <v>1287</v>
+        <v>1295</v>
       </c>
       <c r="E210" t="s">
         <v>579</v>
@@ -9974,73 +9998,66 @@
       </c>
       <c r="H210"/>
       <c r="I210"/>
-      <c r="J210" t="s">
-        <v>1467</v>
-      </c>
-      <c r="K210" t="s">
-        <v>581</v>
-      </c>
-      <c r="L210" t="s">
-        <v>582</v>
-      </c>
+      <c r="K210"/>
+      <c r="L210"/>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B211" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C211"/>
       <c r="D211" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="E211" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F211" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H211"/>
       <c r="I211"/>
-      <c r="K211"/>
-      <c r="L211"/>
+      <c r="J211" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K211" t="s">
+        <v>584</v>
+      </c>
+      <c r="L211" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
         <v>586</v>
       </c>
       <c r="B212" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
       <c r="C212"/>
       <c r="D212" t="s">
-        <v>14</v>
+        <v>1297</v>
       </c>
       <c r="E212" t="s">
-        <v>14</v>
+        <v>587</v>
       </c>
       <c r="F212" t="s">
-        <v>14</v>
+        <v>588</v>
       </c>
       <c r="H212"/>
       <c r="I212"/>
-      <c r="J212" t="s">
-        <v>1468</v>
-      </c>
-      <c r="K212" t="s">
-        <v>587</v>
-      </c>
-      <c r="L212" t="s">
-        <v>588</v>
-      </c>
+      <c r="K212"/>
+      <c r="L212"/>
     </row>
     <row r="213">
       <c r="A213" t="s">
         <v>589</v>
       </c>
       <c r="B213" t="s">
-        <v>1096</v>
+        <v>1139</v>
       </c>
       <c r="C213"/>
       <c r="D213" t="s">
@@ -10055,7 +10072,7 @@
       <c r="H213"/>
       <c r="I213"/>
       <c r="J213" t="s">
-        <v>1469</v>
+        <v>1477</v>
       </c>
       <c r="K213" t="s">
         <v>590</v>
@@ -10069,33 +10086,40 @@
         <v>592</v>
       </c>
       <c r="B214" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="C214"/>
       <c r="D214" t="s">
-        <v>1289</v>
+        <v>14</v>
       </c>
       <c r="E214" t="s">
-        <v>592</v>
+        <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>593</v>
+        <v>14</v>
       </c>
       <c r="H214"/>
       <c r="I214"/>
-      <c r="K214"/>
-      <c r="L214"/>
+      <c r="J214" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K214" t="s">
+        <v>593</v>
+      </c>
+      <c r="L214" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B215" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C215"/>
       <c r="D215" t="s">
-        <v>1290</v>
+        <v>1298</v>
       </c>
       <c r="E215" t="s">
         <v>595</v>
@@ -10113,17 +10137,17 @@
         <v>597</v>
       </c>
       <c r="B216" t="s">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="C216"/>
       <c r="D216" t="s">
-        <v>1291</v>
+        <v>1299</v>
       </c>
       <c r="E216" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F216" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H216"/>
       <c r="I216"/>
@@ -10132,14 +10156,14 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B217" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C217"/>
       <c r="D217" t="s">
-        <v>1292</v>
+        <v>1300</v>
       </c>
       <c r="E217" t="s">
         <v>600</v>
@@ -10157,11 +10181,11 @@
         <v>602</v>
       </c>
       <c r="B218" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C218"/>
       <c r="D218" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="E218" t="s">
         <v>603</v>
@@ -10179,17 +10203,17 @@
         <v>605</v>
       </c>
       <c r="B219" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C219"/>
       <c r="D219" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="E219" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F219" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H219"/>
       <c r="I219"/>
@@ -10198,14 +10222,14 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B220" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C220"/>
       <c r="D220" t="s">
-        <v>1295</v>
+        <v>1303</v>
       </c>
       <c r="E220" t="s">
         <v>608</v>
@@ -10223,11 +10247,11 @@
         <v>610</v>
       </c>
       <c r="B221" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C221"/>
       <c r="D221" t="s">
-        <v>1296</v>
+        <v>1304</v>
       </c>
       <c r="E221" t="s">
         <v>611</v>
@@ -10245,11 +10269,11 @@
         <v>613</v>
       </c>
       <c r="B222" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C222"/>
       <c r="D222" t="s">
-        <v>1297</v>
+        <v>1305</v>
       </c>
       <c r="E222" t="s">
         <v>614</v>
@@ -10259,48 +10283,48 @@
       </c>
       <c r="H222"/>
       <c r="I222"/>
-      <c r="J222" t="s">
-        <v>1470</v>
-      </c>
-      <c r="K222" t="s">
-        <v>616</v>
-      </c>
-      <c r="L222" t="s">
-        <v>617</v>
-      </c>
+      <c r="K222"/>
+      <c r="L222"/>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B223" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="C223"/>
       <c r="D223" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="E223" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F223" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H223"/>
       <c r="I223"/>
-      <c r="K223"/>
-      <c r="L223"/>
+      <c r="J223" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K223" t="s">
+        <v>619</v>
+      </c>
+      <c r="L223" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
         <v>621</v>
       </c>
       <c r="B224" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C224"/>
       <c r="D224" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="E224" t="s">
         <v>622</v>
@@ -10310,124 +10334,117 @@
       </c>
       <c r="H224"/>
       <c r="I224"/>
-      <c r="J224" t="s">
-        <v>1471</v>
-      </c>
-      <c r="K224" t="s">
-        <v>624</v>
-      </c>
-      <c r="L224" t="s">
-        <v>625</v>
-      </c>
+      <c r="K224"/>
+      <c r="L224"/>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B225" t="s">
-        <v>1096</v>
+        <v>1137</v>
       </c>
       <c r="C225"/>
       <c r="D225" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="E225" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F225" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H225"/>
       <c r="I225"/>
-      <c r="K225"/>
-      <c r="L225"/>
+      <c r="J225" t="s">
+        <v>1480</v>
+      </c>
+      <c r="K225" t="s">
+        <v>627</v>
+      </c>
+      <c r="L225" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
         <v>629</v>
       </c>
       <c r="B226" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C226"/>
       <c r="D226" t="s">
-        <v>14</v>
+        <v>1309</v>
       </c>
       <c r="E226" t="s">
-        <v>14</v>
+        <v>630</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
+        <v>631</v>
       </c>
       <c r="H226"/>
       <c r="I226"/>
-      <c r="J226" t="s">
-        <v>1472</v>
-      </c>
-      <c r="K226" t="s">
-        <v>630</v>
-      </c>
-      <c r="L226" t="s">
-        <v>631</v>
-      </c>
+      <c r="K226"/>
+      <c r="L226"/>
     </row>
     <row r="227">
       <c r="A227" t="s">
         <v>632</v>
       </c>
       <c r="B227" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C227"/>
       <c r="D227" t="s">
-        <v>1301</v>
+        <v>14</v>
       </c>
       <c r="E227" t="s">
-        <v>633</v>
+        <v>14</v>
       </c>
       <c r="F227" t="s">
-        <v>634</v>
+        <v>14</v>
       </c>
       <c r="H227"/>
       <c r="I227"/>
-      <c r="K227"/>
-      <c r="L227"/>
+      <c r="J227" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K227" t="s">
+        <v>633</v>
+      </c>
+      <c r="L227" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
         <v>635</v>
       </c>
       <c r="B228" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C228"/>
       <c r="D228" t="s">
-        <v>14</v>
+        <v>1310</v>
       </c>
       <c r="E228" t="s">
-        <v>14</v>
+        <v>636</v>
       </c>
       <c r="F228" t="s">
-        <v>14</v>
+        <v>637</v>
       </c>
       <c r="H228"/>
       <c r="I228"/>
-      <c r="J228" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K228" t="s">
-        <v>636</v>
-      </c>
-      <c r="L228" t="s">
-        <v>637</v>
-      </c>
+      <c r="K228"/>
+      <c r="L228"/>
     </row>
     <row r="229">
       <c r="A229" t="s">
         <v>638</v>
       </c>
       <c r="B229" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C229"/>
       <c r="D229" t="s">
@@ -10442,7 +10459,7 @@
       <c r="H229"/>
       <c r="I229"/>
       <c r="J229" t="s">
-        <v>1474</v>
+        <v>1482</v>
       </c>
       <c r="K229" t="s">
         <v>639</v>
@@ -10456,33 +10473,40 @@
         <v>641</v>
       </c>
       <c r="B230" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C230"/>
       <c r="D230" t="s">
-        <v>1302</v>
+        <v>14</v>
       </c>
       <c r="E230" t="s">
-        <v>642</v>
+        <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>643</v>
+        <v>14</v>
       </c>
       <c r="H230"/>
       <c r="I230"/>
-      <c r="K230"/>
-      <c r="L230"/>
+      <c r="J230" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K230" t="s">
+        <v>642</v>
+      </c>
+      <c r="L230" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
         <v>644</v>
       </c>
       <c r="B231" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C231"/>
       <c r="D231" t="s">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="E231" t="s">
         <v>645</v>
@@ -10500,11 +10524,11 @@
         <v>647</v>
       </c>
       <c r="B232" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C232"/>
       <c r="D232" t="s">
-        <v>1304</v>
+        <v>1312</v>
       </c>
       <c r="E232" t="s">
         <v>648</v>
@@ -10522,11 +10546,11 @@
         <v>650</v>
       </c>
       <c r="B233" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C233"/>
       <c r="D233" t="s">
-        <v>1305</v>
+        <v>1313</v>
       </c>
       <c r="E233" t="s">
         <v>651</v>
@@ -10544,11 +10568,11 @@
         <v>653</v>
       </c>
       <c r="B234" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C234"/>
       <c r="D234" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="E234" t="s">
         <v>654</v>
@@ -10566,11 +10590,11 @@
         <v>656</v>
       </c>
       <c r="B235" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C235"/>
       <c r="D235" t="s">
-        <v>1307</v>
+        <v>1315</v>
       </c>
       <c r="E235" t="s">
         <v>657</v>
@@ -10588,11 +10612,11 @@
         <v>659</v>
       </c>
       <c r="B236" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C236"/>
       <c r="D236" t="s">
-        <v>1308</v>
+        <v>1316</v>
       </c>
       <c r="E236" t="s">
         <v>660</v>
@@ -10602,54 +10626,54 @@
       </c>
       <c r="H236"/>
       <c r="I236"/>
-      <c r="J236" t="s">
-        <v>1475</v>
-      </c>
-      <c r="K236" t="s">
-        <v>662</v>
-      </c>
-      <c r="L236" t="s">
-        <v>663</v>
-      </c>
+      <c r="K236"/>
+      <c r="L236"/>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B237" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C237"/>
       <c r="D237" t="s">
-        <v>1309</v>
+        <v>1317</v>
       </c>
       <c r="E237" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F237" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H237"/>
       <c r="I237"/>
-      <c r="K237"/>
-      <c r="L237"/>
+      <c r="J237" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K237" t="s">
+        <v>665</v>
+      </c>
+      <c r="L237" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
         <v>667</v>
       </c>
       <c r="B238" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C238"/>
       <c r="D238" t="s">
-        <v>1310</v>
+        <v>1318</v>
       </c>
       <c r="E238" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F238" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H238"/>
       <c r="I238"/>
@@ -10658,14 +10682,14 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B239" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C239"/>
       <c r="D239" t="s">
-        <v>1311</v>
+        <v>1319</v>
       </c>
       <c r="E239" t="s">
         <v>670</v>
@@ -10675,146 +10699,139 @@
       </c>
       <c r="H239"/>
       <c r="I239"/>
-      <c r="J239" t="s">
-        <v>1470</v>
-      </c>
-      <c r="K239" t="s">
-        <v>616</v>
-      </c>
-      <c r="L239" t="s">
-        <v>617</v>
-      </c>
+      <c r="K239"/>
+      <c r="L239"/>
     </row>
     <row r="240">
       <c r="A240" t="s">
         <v>672</v>
       </c>
       <c r="B240" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C240"/>
       <c r="D240" t="s">
-        <v>14</v>
+        <v>1320</v>
       </c>
       <c r="E240" t="s">
-        <v>14</v>
+        <v>673</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>674</v>
       </c>
       <c r="H240"/>
       <c r="I240"/>
       <c r="J240" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="K240" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="L240" t="s">
-        <v>673</v>
+        <v>620</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B241" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C241"/>
       <c r="D241" t="s">
-        <v>1312</v>
+        <v>14</v>
       </c>
       <c r="E241" t="s">
-        <v>675</v>
+        <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>676</v>
+        <v>14</v>
       </c>
       <c r="H241"/>
       <c r="I241"/>
-      <c r="K241"/>
-      <c r="L241"/>
+      <c r="J241" t="s">
+        <v>1485</v>
+      </c>
+      <c r="K241" t="s">
+        <v>675</v>
+      </c>
+      <c r="L241" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
         <v>677</v>
       </c>
       <c r="B242" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C242"/>
       <c r="D242" t="s">
-        <v>14</v>
+        <v>1321</v>
       </c>
       <c r="E242" t="s">
-        <v>14</v>
+        <v>678</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
+        <v>679</v>
       </c>
       <c r="H242"/>
       <c r="I242"/>
-      <c r="J242" t="s">
-        <v>1477</v>
-      </c>
-      <c r="K242" t="s">
-        <v>678</v>
-      </c>
-      <c r="L242" t="s">
-        <v>679</v>
-      </c>
+      <c r="K242"/>
+      <c r="L242"/>
     </row>
     <row r="243">
       <c r="A243" t="s">
         <v>680</v>
       </c>
       <c r="B243" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="C243"/>
       <c r="D243" t="s">
-        <v>1313</v>
+        <v>14</v>
       </c>
       <c r="E243" t="s">
-        <v>681</v>
+        <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>682</v>
+        <v>14</v>
       </c>
       <c r="H243"/>
       <c r="I243"/>
       <c r="J243" t="s">
-        <v>1478</v>
+        <v>1486</v>
       </c>
       <c r="K243" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L243" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B244" t="s">
-        <v>1099</v>
+        <v>1129</v>
       </c>
       <c r="C244"/>
       <c r="D244" t="s">
-        <v>14</v>
+        <v>1322</v>
       </c>
       <c r="E244" t="s">
-        <v>14</v>
+        <v>684</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
+        <v>685</v>
       </c>
       <c r="H244"/>
       <c r="I244"/>
       <c r="J244" t="s">
-        <v>1479</v>
+        <v>1487</v>
       </c>
       <c r="K244" t="s">
         <v>686</v>
@@ -10828,7 +10845,7 @@
         <v>688</v>
       </c>
       <c r="B245" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="C245"/>
       <c r="D245" t="s">
@@ -10843,47 +10860,54 @@
       <c r="H245"/>
       <c r="I245"/>
       <c r="J245" t="s">
-        <v>1480</v>
+        <v>1488</v>
       </c>
       <c r="K245" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L245" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B246" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C246"/>
       <c r="D246" t="s">
-        <v>1314</v>
+        <v>14</v>
       </c>
       <c r="E246" t="s">
-        <v>690</v>
+        <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>691</v>
+        <v>14</v>
       </c>
       <c r="H246"/>
       <c r="I246"/>
-      <c r="K246"/>
-      <c r="L246"/>
+      <c r="J246" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K246" t="s">
+        <v>691</v>
+      </c>
+      <c r="L246" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B247" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="C247"/>
       <c r="D247" t="s">
-        <v>1315</v>
+        <v>1323</v>
       </c>
       <c r="E247" t="s">
         <v>693</v>
@@ -10893,99 +10917,96 @@
       </c>
       <c r="H247"/>
       <c r="I247"/>
-      <c r="J247" t="s">
-        <v>1481</v>
-      </c>
-      <c r="K247" t="s">
-        <v>695</v>
-      </c>
-      <c r="L247" t="s">
-        <v>696</v>
-      </c>
+      <c r="K247"/>
+      <c r="L247"/>
     </row>
     <row r="248">
       <c r="A248" t="s">
+        <v>695</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248"/>
+      <c r="E248" t="s">
+        <v>696</v>
+      </c>
+      <c r="F248" t="s">
         <v>697</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C248"/>
-      <c r="D248" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E248" t="s">
-        <v>698</v>
-      </c>
-      <c r="F248" t="s">
-        <v>699</v>
       </c>
       <c r="H248"/>
       <c r="I248"/>
-      <c r="J248" t="s">
-        <v>1482</v>
-      </c>
-      <c r="K248" t="s">
-        <v>700</v>
-      </c>
-      <c r="L248" t="s">
-        <v>701</v>
-      </c>
+      <c r="K248"/>
+      <c r="L248"/>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B249" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="C249"/>
       <c r="D249" t="s">
-        <v>1317</v>
+        <v>1324</v>
       </c>
       <c r="E249" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F249" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="H249"/>
       <c r="I249"/>
-      <c r="K249"/>
-      <c r="L249"/>
+      <c r="J249" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K249" t="s">
+        <v>701</v>
+      </c>
+      <c r="L249" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B250" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="C250"/>
       <c r="D250" t="s">
-        <v>1318</v>
+        <v>1325</v>
       </c>
       <c r="E250" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F250" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H250"/>
       <c r="I250"/>
-      <c r="K250"/>
-      <c r="L250"/>
+      <c r="J250" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K250" t="s">
+        <v>706</v>
+      </c>
+      <c r="L250" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
         <v>708</v>
       </c>
       <c r="B251" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="C251"/>
       <c r="D251" t="s">
-        <v>1319</v>
+        <v>1326</v>
       </c>
       <c r="E251" t="s">
         <v>709</v>
@@ -11003,17 +11024,17 @@
         <v>711</v>
       </c>
       <c r="B252" t="s">
-        <v>1097</v>
+        <v>1140</v>
       </c>
       <c r="C252"/>
       <c r="D252" t="s">
-        <v>1319</v>
+        <v>1327</v>
       </c>
       <c r="E252" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F252" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H252"/>
       <c r="I252"/>
@@ -11022,20 +11043,20 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B253" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="C253"/>
       <c r="D253" t="s">
-        <v>1320</v>
+        <v>1328</v>
       </c>
       <c r="E253" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F253" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H253"/>
       <c r="I253"/>
@@ -11044,20 +11065,20 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B254" t="s">
-        <v>1132</v>
+        <v>1106</v>
       </c>
       <c r="C254"/>
       <c r="D254" t="s">
-        <v>1321</v>
+        <v>1328</v>
       </c>
       <c r="E254" t="s">
+        <v>715</v>
+      </c>
+      <c r="F254" t="s">
         <v>716</v>
-      </c>
-      <c r="F254" t="s">
-        <v>717</v>
       </c>
       <c r="H254"/>
       <c r="I254"/>
@@ -11069,65 +11090,51 @@
         <v>718</v>
       </c>
       <c r="B255" t="s">
-        <v>1096</v>
+        <v>1140</v>
       </c>
       <c r="C255"/>
       <c r="D255" t="s">
-        <v>14</v>
+        <v>1329</v>
       </c>
       <c r="E255" t="s">
-        <v>14</v>
+        <v>719</v>
       </c>
       <c r="F255" t="s">
-        <v>14</v>
+        <v>720</v>
       </c>
       <c r="H255"/>
       <c r="I255"/>
-      <c r="J255" t="s">
-        <v>1483</v>
-      </c>
-      <c r="K255" t="s">
-        <v>719</v>
-      </c>
-      <c r="L255" t="s">
-        <v>720</v>
-      </c>
+      <c r="K255"/>
+      <c r="L255"/>
     </row>
     <row r="256">
       <c r="A256" t="s">
         <v>721</v>
       </c>
       <c r="B256" t="s">
-        <v>1096</v>
+        <v>1141</v>
       </c>
       <c r="C256"/>
       <c r="D256" t="s">
-        <v>14</v>
+        <v>1330</v>
       </c>
       <c r="E256" t="s">
-        <v>14</v>
+        <v>722</v>
       </c>
       <c r="F256" t="s">
-        <v>14</v>
+        <v>723</v>
       </c>
       <c r="H256"/>
       <c r="I256"/>
-      <c r="J256" t="s">
-        <v>1484</v>
-      </c>
-      <c r="K256" t="s">
-        <v>722</v>
-      </c>
-      <c r="L256" t="s">
-        <v>723</v>
-      </c>
+      <c r="K256"/>
+      <c r="L256"/>
     </row>
     <row r="257">
       <c r="A257" t="s">
         <v>724</v>
       </c>
       <c r="B257" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C257"/>
       <c r="D257" t="s">
@@ -11142,7 +11149,7 @@
       <c r="H257"/>
       <c r="I257"/>
       <c r="J257" t="s">
-        <v>1485</v>
+        <v>1492</v>
       </c>
       <c r="K257" t="s">
         <v>725</v>
@@ -11156,36 +11163,36 @@
         <v>727</v>
       </c>
       <c r="B258" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C258"/>
       <c r="D258" t="s">
-        <v>1322</v>
+        <v>14</v>
       </c>
       <c r="E258" t="s">
-        <v>728</v>
+        <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>729</v>
+        <v>14</v>
       </c>
       <c r="H258"/>
       <c r="I258"/>
       <c r="J258" t="s">
-        <v>1486</v>
+        <v>1493</v>
       </c>
       <c r="K258" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="L258" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B259" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
       <c r="C259"/>
       <c r="D259" t="s">
@@ -11200,36 +11207,36 @@
       <c r="H259"/>
       <c r="I259"/>
       <c r="J259" t="s">
-        <v>1487</v>
+        <v>1494</v>
       </c>
       <c r="K259" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L259" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B260" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C260"/>
       <c r="D260" t="s">
-        <v>14</v>
+        <v>1331</v>
       </c>
       <c r="E260" t="s">
-        <v>14</v>
+        <v>734</v>
       </c>
       <c r="F260" t="s">
-        <v>14</v>
+        <v>735</v>
       </c>
       <c r="H260"/>
       <c r="I260"/>
       <c r="J260" t="s">
-        <v>1488</v>
+        <v>1495</v>
       </c>
       <c r="K260" t="s">
         <v>736</v>
@@ -11243,7 +11250,7 @@
         <v>738</v>
       </c>
       <c r="B261" t="s">
-        <v>1102</v>
+        <v>1139</v>
       </c>
       <c r="C261"/>
       <c r="D261" t="s">
@@ -11258,7 +11265,7 @@
       <c r="H261"/>
       <c r="I261"/>
       <c r="J261" t="s">
-        <v>1489</v>
+        <v>1496</v>
       </c>
       <c r="K261" t="s">
         <v>739</v>
@@ -11272,7 +11279,7 @@
         <v>741</v>
       </c>
       <c r="B262" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C262"/>
       <c r="D262" t="s">
@@ -11287,75 +11294,89 @@
       <c r="H262"/>
       <c r="I262"/>
       <c r="J262" t="s">
-        <v>1490</v>
+        <v>1497</v>
       </c>
       <c r="K262" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L262" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B263" t="s">
-        <v>1096</v>
+        <v>1111</v>
       </c>
       <c r="C263"/>
       <c r="D263" t="s">
-        <v>1323</v>
+        <v>14</v>
       </c>
       <c r="E263" t="s">
-        <v>743</v>
+        <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>744</v>
+        <v>14</v>
       </c>
       <c r="H263"/>
       <c r="I263"/>
-      <c r="K263"/>
-      <c r="L263"/>
+      <c r="J263" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K263" t="s">
+        <v>745</v>
+      </c>
+      <c r="L263" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B264" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C264"/>
       <c r="D264" t="s">
-        <v>1324</v>
+        <v>14</v>
       </c>
       <c r="E264" t="s">
-        <v>745</v>
+        <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>746</v>
+        <v>14</v>
       </c>
       <c r="H264"/>
       <c r="I264"/>
-      <c r="K264"/>
-      <c r="L264"/>
+      <c r="J264" t="s">
+        <v>1499</v>
+      </c>
+      <c r="K264" t="s">
+        <v>747</v>
+      </c>
+      <c r="L264" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B265" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="C265"/>
       <c r="D265" t="s">
-        <v>1325</v>
+        <v>1332</v>
       </c>
       <c r="E265" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F265" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H265"/>
       <c r="I265"/>
@@ -11364,14 +11385,14 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B266" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C266"/>
       <c r="D266" t="s">
-        <v>1326</v>
+        <v>1333</v>
       </c>
       <c r="E266" t="s">
         <v>751</v>
@@ -11389,11 +11410,11 @@
         <v>753</v>
       </c>
       <c r="B267" t="s">
-        <v>1096</v>
+        <v>1111</v>
       </c>
       <c r="C267"/>
       <c r="D267" t="s">
-        <v>1327</v>
+        <v>1334</v>
       </c>
       <c r="E267" t="s">
         <v>754</v>
@@ -11411,11 +11432,11 @@
         <v>756</v>
       </c>
       <c r="B268" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C268"/>
       <c r="D268" t="s">
-        <v>1328</v>
+        <v>1335</v>
       </c>
       <c r="E268" t="s">
         <v>757</v>
@@ -11433,11 +11454,11 @@
         <v>759</v>
       </c>
       <c r="B269" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C269"/>
       <c r="D269" t="s">
-        <v>1329</v>
+        <v>1336</v>
       </c>
       <c r="E269" t="s">
         <v>760</v>
@@ -11447,66 +11468,52 @@
       </c>
       <c r="H269"/>
       <c r="I269"/>
-      <c r="J269" t="s">
-        <v>1491</v>
-      </c>
-      <c r="K269" t="s">
-        <v>762</v>
-      </c>
-      <c r="L269" t="s">
-        <v>763</v>
-      </c>
+      <c r="K269"/>
+      <c r="L269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B270" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C270"/>
       <c r="D270" t="s">
-        <v>14</v>
+        <v>1337</v>
       </c>
       <c r="E270" t="s">
-        <v>14</v>
+        <v>763</v>
       </c>
       <c r="F270" t="s">
-        <v>14</v>
+        <v>764</v>
       </c>
       <c r="H270"/>
       <c r="I270"/>
-      <c r="J270" t="s">
-        <v>1492</v>
-      </c>
-      <c r="K270" t="s">
-        <v>765</v>
-      </c>
-      <c r="L270" t="s">
-        <v>766</v>
-      </c>
+      <c r="K270"/>
+      <c r="L270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B271" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C271"/>
       <c r="D271" t="s">
-        <v>14</v>
+        <v>1338</v>
       </c>
       <c r="E271" t="s">
-        <v>14</v>
+        <v>766</v>
       </c>
       <c r="F271" t="s">
-        <v>14</v>
+        <v>767</v>
       </c>
       <c r="H271"/>
       <c r="I271"/>
       <c r="J271" t="s">
-        <v>1493</v>
+        <v>1500</v>
       </c>
       <c r="K271" t="s">
         <v>768</v>
@@ -11520,7 +11527,7 @@
         <v>770</v>
       </c>
       <c r="B272" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="C272"/>
       <c r="D272" t="s">
@@ -11535,21 +11542,21 @@
       <c r="H272"/>
       <c r="I272"/>
       <c r="J272" t="s">
-        <v>1488</v>
+        <v>1501</v>
       </c>
       <c r="K272" t="s">
-        <v>736</v>
+        <v>771</v>
       </c>
       <c r="L272" t="s">
-        <v>737</v>
+        <v>772</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B273" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C273"/>
       <c r="D273" t="s">
@@ -11564,75 +11571,89 @@
       <c r="H273"/>
       <c r="I273"/>
       <c r="J273" t="s">
-        <v>1488</v>
+        <v>1502</v>
       </c>
       <c r="K273" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="L273" t="s">
-        <v>737</v>
+        <v>775</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B274" t="s">
-        <v>1096</v>
+        <v>1123</v>
       </c>
       <c r="C274"/>
       <c r="D274" t="s">
-        <v>1330</v>
+        <v>14</v>
       </c>
       <c r="E274" t="s">
-        <v>773</v>
+        <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>774</v>
+        <v>14</v>
       </c>
       <c r="H274"/>
       <c r="I274"/>
-      <c r="K274"/>
-      <c r="L274"/>
+      <c r="J274" t="s">
+        <v>1497</v>
+      </c>
+      <c r="K274" t="s">
+        <v>742</v>
+      </c>
+      <c r="L274" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B275" t="s">
-        <v>1133</v>
+        <v>1105</v>
       </c>
       <c r="C275"/>
       <c r="D275" t="s">
-        <v>1331</v>
+        <v>14</v>
       </c>
       <c r="E275" t="s">
-        <v>775</v>
+        <v>14</v>
       </c>
       <c r="F275" t="s">
-        <v>776</v>
+        <v>14</v>
       </c>
       <c r="H275"/>
       <c r="I275"/>
-      <c r="K275"/>
-      <c r="L275"/>
+      <c r="J275" t="s">
+        <v>1497</v>
+      </c>
+      <c r="K275" t="s">
+        <v>742</v>
+      </c>
+      <c r="L275" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B276" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C276"/>
       <c r="D276" t="s">
-        <v>1332</v>
+        <v>1339</v>
       </c>
       <c r="E276" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F276" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H276"/>
       <c r="I276"/>
@@ -11641,20 +11662,20 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B277" t="s">
-        <v>1096</v>
+        <v>1142</v>
       </c>
       <c r="C277"/>
       <c r="D277" t="s">
-        <v>1333</v>
+        <v>1340</v>
       </c>
       <c r="E277" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F277" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H277"/>
       <c r="I277"/>
@@ -11663,20 +11684,20 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B278" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="C278"/>
       <c r="D278" t="s">
-        <v>1334</v>
+        <v>1341</v>
       </c>
       <c r="E278" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F278" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H278"/>
       <c r="I278"/>
@@ -11685,14 +11706,14 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B279" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C279"/>
       <c r="D279" t="s">
-        <v>1335</v>
+        <v>1342</v>
       </c>
       <c r="E279" t="s">
         <v>786</v>
@@ -11710,17 +11731,17 @@
         <v>788</v>
       </c>
       <c r="B280" t="s">
-        <v>1096</v>
+        <v>1124</v>
       </c>
       <c r="C280"/>
       <c r="D280" t="s">
-        <v>1336</v>
+        <v>1343</v>
       </c>
       <c r="E280" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F280" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H280"/>
       <c r="I280"/>
@@ -11729,68 +11750,54 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B281" t="s">
-        <v>1134</v>
+        <v>1105</v>
       </c>
       <c r="C281"/>
       <c r="D281" t="s">
-        <v>14</v>
+        <v>1344</v>
       </c>
       <c r="E281" t="s">
-        <v>14</v>
+        <v>792</v>
       </c>
       <c r="F281" t="s">
-        <v>14</v>
+        <v>793</v>
       </c>
       <c r="H281"/>
       <c r="I281"/>
-      <c r="J281" t="s">
-        <v>1494</v>
-      </c>
-      <c r="K281" t="s">
-        <v>791</v>
-      </c>
-      <c r="L281" t="s">
-        <v>792</v>
-      </c>
+      <c r="K281"/>
+      <c r="L281"/>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B282" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="C282"/>
       <c r="D282" t="s">
-        <v>14</v>
+        <v>1345</v>
       </c>
       <c r="E282" t="s">
-        <v>14</v>
+        <v>794</v>
       </c>
       <c r="F282" t="s">
-        <v>14</v>
+        <v>795</v>
       </c>
       <c r="H282"/>
       <c r="I282"/>
-      <c r="J282" t="s">
-        <v>1495</v>
-      </c>
-      <c r="K282" t="s">
-        <v>794</v>
-      </c>
-      <c r="L282" t="s">
-        <v>795</v>
-      </c>
+      <c r="K282"/>
+      <c r="L282"/>
     </row>
     <row r="283">
       <c r="A283" t="s">
         <v>796</v>
       </c>
       <c r="B283" t="s">
-        <v>1126</v>
+        <v>1143</v>
       </c>
       <c r="C283"/>
       <c r="D283" t="s">
@@ -11805,21 +11812,21 @@
       <c r="H283"/>
       <c r="I283"/>
       <c r="J283" t="s">
-        <v>1496</v>
+        <v>1503</v>
       </c>
       <c r="K283" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
       <c r="L283" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B284" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C284"/>
       <c r="D284" t="s">
@@ -11834,21 +11841,21 @@
       <c r="H284"/>
       <c r="I284"/>
       <c r="J284" t="s">
-        <v>1496</v>
+        <v>1504</v>
       </c>
       <c r="K284" t="s">
-        <v>767</v>
+        <v>800</v>
       </c>
       <c r="L284" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B285" t="s">
-        <v>1096</v>
+        <v>1135</v>
       </c>
       <c r="C285"/>
       <c r="D285" t="s">
@@ -11863,18 +11870,18 @@
       <c r="H285"/>
       <c r="I285"/>
       <c r="J285" t="s">
-        <v>1481</v>
+        <v>1505</v>
       </c>
       <c r="K285" t="s">
-        <v>695</v>
+        <v>773</v>
       </c>
       <c r="L285" t="s">
-        <v>696</v>
+        <v>803</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B286" t="s">
         <v>1135</v>
@@ -11892,21 +11899,21 @@
       <c r="H286"/>
       <c r="I286"/>
       <c r="J286" t="s">
-        <v>1497</v>
+        <v>1505</v>
       </c>
       <c r="K286" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
       <c r="L286" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B287" t="s">
-        <v>1129</v>
+        <v>1105</v>
       </c>
       <c r="C287"/>
       <c r="D287" t="s">
@@ -11921,13 +11928,13 @@
       <c r="H287"/>
       <c r="I287"/>
       <c r="J287" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="K287" t="s">
-        <v>804</v>
+        <v>701</v>
       </c>
       <c r="L287" t="s">
-        <v>805</v>
+        <v>702</v>
       </c>
     </row>
     <row r="288">
@@ -11935,7 +11942,7 @@
         <v>806</v>
       </c>
       <c r="B288" t="s">
-        <v>1129</v>
+        <v>1144</v>
       </c>
       <c r="C288"/>
       <c r="D288" t="s">
@@ -11950,7 +11957,7 @@
       <c r="H288"/>
       <c r="I288"/>
       <c r="J288" t="s">
-        <v>1499</v>
+        <v>1506</v>
       </c>
       <c r="K288" t="s">
         <v>807</v>
@@ -11964,7 +11971,7 @@
         <v>809</v>
       </c>
       <c r="B289" t="s">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="C289"/>
       <c r="D289" t="s">
@@ -11979,7 +11986,7 @@
       <c r="H289"/>
       <c r="I289"/>
       <c r="J289" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="K289" t="s">
         <v>810</v>
@@ -11993,7 +12000,7 @@
         <v>812</v>
       </c>
       <c r="B290" t="s">
-        <v>1096</v>
+        <v>1138</v>
       </c>
       <c r="C290"/>
       <c r="D290" t="s">
@@ -12008,7 +12015,7 @@
       <c r="H290"/>
       <c r="I290"/>
       <c r="J290" t="s">
-        <v>1501</v>
+        <v>1508</v>
       </c>
       <c r="K290" t="s">
         <v>813</v>
@@ -12022,29 +12029,36 @@
         <v>815</v>
       </c>
       <c r="B291" t="s">
-        <v>1096</v>
+        <v>1138</v>
       </c>
       <c r="C291"/>
       <c r="D291" t="s">
-        <v>1337</v>
+        <v>14</v>
       </c>
       <c r="E291" t="s">
-        <v>815</v>
+        <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>816</v>
+        <v>14</v>
       </c>
       <c r="H291"/>
       <c r="I291"/>
-      <c r="K291"/>
-      <c r="L291"/>
+      <c r="J291" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K291" t="s">
+        <v>816</v>
+      </c>
+      <c r="L291" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B292" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C292"/>
       <c r="D292" t="s">
@@ -12059,152 +12073,145 @@
       <c r="H292"/>
       <c r="I292"/>
       <c r="J292" t="s">
-        <v>1502</v>
+        <v>1510</v>
       </c>
       <c r="K292" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L292" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B293" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C293"/>
       <c r="D293" t="s">
-        <v>14</v>
+        <v>1346</v>
       </c>
       <c r="E293" t="s">
-        <v>14</v>
+        <v>821</v>
       </c>
       <c r="F293" t="s">
-        <v>14</v>
+        <v>822</v>
       </c>
       <c r="H293"/>
       <c r="I293"/>
-      <c r="J293" t="s">
-        <v>1503</v>
-      </c>
-      <c r="K293" t="s">
-        <v>821</v>
-      </c>
-      <c r="L293" t="s">
-        <v>822</v>
-      </c>
+      <c r="K293"/>
+      <c r="L293"/>
     </row>
     <row r="294">
       <c r="A294" t="s">
         <v>823</v>
       </c>
       <c r="B294" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C294"/>
       <c r="D294" t="s">
-        <v>1338</v>
+        <v>14</v>
       </c>
       <c r="E294" t="s">
-        <v>824</v>
+        <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>825</v>
+        <v>14</v>
       </c>
       <c r="H294"/>
       <c r="I294"/>
-      <c r="K294"/>
-      <c r="L294"/>
+      <c r="J294" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K294" t="s">
+        <v>824</v>
+      </c>
+      <c r="L294" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
         <v>826</v>
       </c>
       <c r="B295" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C295"/>
       <c r="D295" t="s">
-        <v>1339</v>
+        <v>14</v>
       </c>
       <c r="E295" t="s">
-        <v>826</v>
+        <v>14</v>
       </c>
       <c r="F295" t="s">
-        <v>827</v>
+        <v>14</v>
       </c>
       <c r="H295"/>
       <c r="I295"/>
-      <c r="K295"/>
-      <c r="L295"/>
+      <c r="J295" t="s">
+        <v>1512</v>
+      </c>
+      <c r="K295" t="s">
+        <v>827</v>
+      </c>
+      <c r="L295" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B296" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C296"/>
       <c r="D296" t="s">
-        <v>14</v>
+        <v>1347</v>
       </c>
       <c r="E296" t="s">
-        <v>14</v>
+        <v>830</v>
       </c>
       <c r="F296" t="s">
-        <v>14</v>
+        <v>831</v>
       </c>
       <c r="H296"/>
       <c r="I296"/>
-      <c r="J296" t="s">
-        <v>1504</v>
-      </c>
-      <c r="K296" t="s">
-        <v>829</v>
-      </c>
-      <c r="L296" t="s">
-        <v>830</v>
-      </c>
+      <c r="K296"/>
+      <c r="L296"/>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B297" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="C297"/>
       <c r="D297" t="s">
-        <v>14</v>
+        <v>1348</v>
       </c>
       <c r="E297" t="s">
-        <v>14</v>
+        <v>832</v>
       </c>
       <c r="F297" t="s">
-        <v>14</v>
+        <v>833</v>
       </c>
       <c r="H297"/>
       <c r="I297"/>
-      <c r="J297" t="s">
-        <v>1505</v>
-      </c>
-      <c r="K297" t="s">
-        <v>832</v>
-      </c>
-      <c r="L297" t="s">
-        <v>833</v>
-      </c>
+      <c r="K297"/>
+      <c r="L297"/>
     </row>
     <row r="298">
       <c r="A298" t="s">
         <v>834</v>
       </c>
       <c r="B298" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C298"/>
       <c r="D298" t="s">
@@ -12219,7 +12226,7 @@
       <c r="H298"/>
       <c r="I298"/>
       <c r="J298" t="s">
-        <v>1506</v>
+        <v>1513</v>
       </c>
       <c r="K298" t="s">
         <v>835</v>
@@ -12233,7 +12240,7 @@
         <v>837</v>
       </c>
       <c r="B299" t="s">
-        <v>1096</v>
+        <v>1128</v>
       </c>
       <c r="C299"/>
       <c r="D299" t="s">
@@ -12248,21 +12255,21 @@
       <c r="H299"/>
       <c r="I299"/>
       <c r="J299" t="s">
-        <v>1507</v>
+        <v>1514</v>
       </c>
       <c r="K299" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="L299" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B300" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="C300"/>
       <c r="D300" t="s">
@@ -12277,75 +12284,89 @@
       <c r="H300"/>
       <c r="I300"/>
       <c r="J300" t="s">
-        <v>1508</v>
+        <v>1515</v>
       </c>
       <c r="K300" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="L300" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B301" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C301"/>
       <c r="D301" t="s">
-        <v>1340</v>
+        <v>14</v>
       </c>
       <c r="E301" t="s">
-        <v>842</v>
+        <v>14</v>
       </c>
       <c r="F301" t="s">
-        <v>843</v>
+        <v>14</v>
       </c>
       <c r="H301"/>
       <c r="I301"/>
-      <c r="K301"/>
-      <c r="L301"/>
+      <c r="J301" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K301" t="s">
+        <v>843</v>
+      </c>
+      <c r="L301" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B302" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="C302"/>
       <c r="D302" t="s">
-        <v>1341</v>
+        <v>14</v>
       </c>
       <c r="E302" t="s">
-        <v>844</v>
+        <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>845</v>
+        <v>14</v>
       </c>
       <c r="H302"/>
       <c r="I302"/>
-      <c r="K302"/>
-      <c r="L302"/>
+      <c r="J302" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K302" t="s">
+        <v>845</v>
+      </c>
+      <c r="L302" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B303" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C303"/>
       <c r="D303" t="s">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="E303" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F303" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H303"/>
       <c r="I303"/>
@@ -12354,68 +12375,54 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B304" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C304"/>
       <c r="D304" t="s">
-        <v>14</v>
+        <v>1350</v>
       </c>
       <c r="E304" t="s">
-        <v>14</v>
+        <v>850</v>
       </c>
       <c r="F304" t="s">
-        <v>14</v>
+        <v>851</v>
       </c>
       <c r="H304"/>
       <c r="I304"/>
-      <c r="J304" t="s">
-        <v>1509</v>
-      </c>
-      <c r="K304" t="s">
-        <v>849</v>
-      </c>
-      <c r="L304" t="s">
-        <v>850</v>
-      </c>
+      <c r="K304"/>
+      <c r="L304"/>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B305" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C305"/>
       <c r="D305" t="s">
-        <v>14</v>
+        <v>1351</v>
       </c>
       <c r="E305" t="s">
-        <v>14</v>
+        <v>853</v>
       </c>
       <c r="F305" t="s">
-        <v>14</v>
+        <v>854</v>
       </c>
       <c r="H305"/>
       <c r="I305"/>
-      <c r="J305" t="s">
-        <v>1510</v>
-      </c>
-      <c r="K305" t="s">
-        <v>852</v>
-      </c>
-      <c r="L305" t="s">
-        <v>853</v>
-      </c>
+      <c r="K305"/>
+      <c r="L305"/>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B306" t="s">
-        <v>1135</v>
+        <v>1105</v>
       </c>
       <c r="C306"/>
       <c r="D306" t="s">
@@ -12430,7 +12437,7 @@
       <c r="H306"/>
       <c r="I306"/>
       <c r="J306" t="s">
-        <v>1511</v>
+        <v>1518</v>
       </c>
       <c r="K306" t="s">
         <v>855</v>
@@ -12444,7 +12451,7 @@
         <v>857</v>
       </c>
       <c r="B307" t="s">
-        <v>1135</v>
+        <v>1105</v>
       </c>
       <c r="C307"/>
       <c r="D307" t="s">
@@ -12459,7 +12466,7 @@
       <c r="H307"/>
       <c r="I307"/>
       <c r="J307" t="s">
-        <v>1512</v>
+        <v>1519</v>
       </c>
       <c r="K307" t="s">
         <v>858</v>
@@ -12473,28 +12480,28 @@
         <v>860</v>
       </c>
       <c r="B308" t="s">
-        <v>1096</v>
+        <v>1144</v>
       </c>
       <c r="C308"/>
       <c r="D308" t="s">
-        <v>1343</v>
+        <v>14</v>
       </c>
       <c r="E308" t="s">
-        <v>861</v>
+        <v>14</v>
       </c>
       <c r="F308" t="s">
-        <v>862</v>
+        <v>14</v>
       </c>
       <c r="H308"/>
       <c r="I308"/>
       <c r="J308" t="s">
-        <v>1479</v>
+        <v>1520</v>
       </c>
       <c r="K308" t="s">
-        <v>686</v>
+        <v>861</v>
       </c>
       <c r="L308" t="s">
-        <v>687</v>
+        <v>862</v>
       </c>
     </row>
     <row r="309">
@@ -12502,33 +12509,40 @@
         <v>863</v>
       </c>
       <c r="B309" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="C309"/>
       <c r="D309" t="s">
-        <v>1344</v>
+        <v>14</v>
       </c>
       <c r="E309" t="s">
-        <v>864</v>
+        <v>14</v>
       </c>
       <c r="F309" t="s">
-        <v>865</v>
+        <v>14</v>
       </c>
       <c r="H309"/>
       <c r="I309"/>
-      <c r="K309"/>
-      <c r="L309"/>
+      <c r="J309" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K309" t="s">
+        <v>864</v>
+      </c>
+      <c r="L309" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
         <v>866</v>
       </c>
       <c r="B310" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C310"/>
       <c r="D310" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
       <c r="E310" t="s">
         <v>867</v>
@@ -12538,19 +12552,26 @@
       </c>
       <c r="H310"/>
       <c r="I310"/>
-      <c r="K310"/>
-      <c r="L310"/>
+      <c r="J310" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K310" t="s">
+        <v>689</v>
+      </c>
+      <c r="L310" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
         <v>869</v>
       </c>
       <c r="B311" t="s">
-        <v>1102</v>
+        <v>1145</v>
       </c>
       <c r="C311"/>
       <c r="D311" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="E311" t="s">
         <v>870</v>
@@ -12568,17 +12589,17 @@
         <v>872</v>
       </c>
       <c r="B312" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C312"/>
       <c r="D312" t="s">
-        <v>1347</v>
+        <v>1354</v>
       </c>
       <c r="E312" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F312" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H312"/>
       <c r="I312"/>
@@ -12587,20 +12608,20 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B313" t="s">
-        <v>1137</v>
+        <v>1111</v>
       </c>
       <c r="C313"/>
       <c r="D313" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="E313" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F313" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H313"/>
       <c r="I313"/>
@@ -12609,14 +12630,14 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B314" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="C314"/>
       <c r="D314" t="s">
-        <v>1349</v>
+        <v>1356</v>
       </c>
       <c r="E314" t="s">
         <v>878</v>
@@ -12626,66 +12647,52 @@
       </c>
       <c r="H314"/>
       <c r="I314"/>
-      <c r="J314" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K314" t="s">
-        <v>880</v>
-      </c>
-      <c r="L314" t="s">
-        <v>881</v>
-      </c>
+      <c r="K314"/>
+      <c r="L314"/>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B315" t="s">
-        <v>1096</v>
+        <v>1146</v>
       </c>
       <c r="C315"/>
       <c r="D315" t="s">
-        <v>14</v>
+        <v>1357</v>
       </c>
       <c r="E315" t="s">
-        <v>14</v>
+        <v>881</v>
       </c>
       <c r="F315" t="s">
-        <v>14</v>
+        <v>882</v>
       </c>
       <c r="H315"/>
       <c r="I315"/>
-      <c r="J315" t="s">
-        <v>1514</v>
-      </c>
-      <c r="K315" t="s">
-        <v>883</v>
-      </c>
-      <c r="L315" t="s">
-        <v>884</v>
-      </c>
+      <c r="K315"/>
+      <c r="L315"/>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B316" t="s">
-        <v>1097</v>
+        <v>1123</v>
       </c>
       <c r="C316"/>
       <c r="D316" t="s">
-        <v>14</v>
+        <v>1358</v>
       </c>
       <c r="E316" t="s">
-        <v>14</v>
+        <v>884</v>
       </c>
       <c r="F316" t="s">
-        <v>14</v>
+        <v>885</v>
       </c>
       <c r="H316"/>
       <c r="I316"/>
       <c r="J316" t="s">
-        <v>1515</v>
+        <v>1522</v>
       </c>
       <c r="K316" t="s">
         <v>886</v>
@@ -12699,7 +12706,7 @@
         <v>888</v>
       </c>
       <c r="B317" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C317"/>
       <c r="D317" t="s">
@@ -12714,7 +12721,7 @@
       <c r="H317"/>
       <c r="I317"/>
       <c r="J317" t="s">
-        <v>1516</v>
+        <v>1523</v>
       </c>
       <c r="K317" t="s">
         <v>889</v>
@@ -12728,7 +12735,7 @@
         <v>891</v>
       </c>
       <c r="B318" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="C318"/>
       <c r="D318" t="s">
@@ -12743,318 +12750,325 @@
       <c r="H318"/>
       <c r="I318"/>
       <c r="J318" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="K318" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="L318" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B319" t="s">
-        <v>1138</v>
+        <v>1105</v>
       </c>
       <c r="C319"/>
       <c r="D319" t="s">
-        <v>1350</v>
+        <v>14</v>
       </c>
       <c r="E319" t="s">
-        <v>893</v>
+        <v>14</v>
       </c>
       <c r="F319" t="s">
-        <v>894</v>
+        <v>14</v>
       </c>
       <c r="H319"/>
       <c r="I319"/>
       <c r="J319" t="s">
-        <v>1516</v>
+        <v>1525</v>
       </c>
       <c r="K319" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="L319" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B320" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="C320"/>
       <c r="D320" t="s">
-        <v>1351</v>
+        <v>14</v>
       </c>
       <c r="E320" t="s">
-        <v>896</v>
+        <v>14</v>
       </c>
       <c r="F320" t="s">
-        <v>897</v>
+        <v>14</v>
       </c>
       <c r="H320"/>
       <c r="I320"/>
       <c r="J320" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
       <c r="K320" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="L320" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B321" t="s">
-        <v>1124</v>
+        <v>1147</v>
       </c>
       <c r="C321"/>
       <c r="D321" t="s">
-        <v>1352</v>
+        <v>1359</v>
       </c>
       <c r="E321" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F321" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H321"/>
       <c r="I321"/>
       <c r="J321" t="s">
-        <v>1518</v>
+        <v>1525</v>
       </c>
       <c r="K321" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="L321" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B322" t="s">
-        <v>1124</v>
+        <v>1148</v>
       </c>
       <c r="C322"/>
       <c r="D322" t="s">
-        <v>1353</v>
+        <v>1360</v>
       </c>
       <c r="E322" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="F322" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="H322"/>
       <c r="I322"/>
       <c r="J322" t="s">
-        <v>1519</v>
+        <v>1526</v>
       </c>
       <c r="K322" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="L322" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B323" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C323"/>
       <c r="D323" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
       <c r="E323" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F323" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="H323"/>
       <c r="I323"/>
-      <c r="K323"/>
-      <c r="L323"/>
+      <c r="J323" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K323" t="s">
+        <v>909</v>
+      </c>
+      <c r="L323" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B324" t="s">
-        <v>1096</v>
+        <v>1133</v>
       </c>
       <c r="C324"/>
       <c r="D324" t="s">
-        <v>14</v>
+        <v>1362</v>
       </c>
       <c r="E324" t="s">
-        <v>14</v>
+        <v>912</v>
       </c>
       <c r="F324" t="s">
-        <v>14</v>
+        <v>913</v>
       </c>
       <c r="H324"/>
       <c r="I324"/>
       <c r="J324" t="s">
-        <v>1520</v>
+        <v>1528</v>
       </c>
       <c r="K324" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="L324" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B325" t="s">
-        <v>1096</v>
+        <v>1145</v>
       </c>
       <c r="C325"/>
       <c r="D325" t="s">
-        <v>1355</v>
+        <v>1363</v>
       </c>
       <c r="E325" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F325" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H325"/>
       <c r="I325"/>
-      <c r="J325" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K325" t="s">
-        <v>918</v>
-      </c>
-      <c r="L325" t="s">
-        <v>919</v>
-      </c>
+      <c r="K325"/>
+      <c r="L325"/>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B326" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C326"/>
       <c r="D326" t="s">
-        <v>1356</v>
+        <v>14</v>
       </c>
       <c r="E326" t="s">
-        <v>921</v>
+        <v>14</v>
       </c>
       <c r="F326" t="s">
-        <v>922</v>
+        <v>14</v>
       </c>
       <c r="H326"/>
       <c r="I326"/>
       <c r="J326" t="s">
-        <v>1522</v>
+        <v>1529</v>
       </c>
       <c r="K326" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="L326" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B327" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C327"/>
       <c r="D327" t="s">
-        <v>14</v>
+        <v>1364</v>
       </c>
       <c r="E327" t="s">
-        <v>14</v>
+        <v>922</v>
       </c>
       <c r="F327" t="s">
-        <v>14</v>
+        <v>923</v>
       </c>
       <c r="H327"/>
       <c r="I327"/>
       <c r="J327" t="s">
-        <v>1523</v>
+        <v>1530</v>
       </c>
       <c r="K327" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L327" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B328" t="s">
-        <v>1140</v>
+        <v>1105</v>
       </c>
       <c r="C328"/>
       <c r="D328" t="s">
-        <v>1357</v>
+        <v>1365</v>
       </c>
       <c r="E328" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F328" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H328"/>
       <c r="I328"/>
-      <c r="K328"/>
-      <c r="L328"/>
+      <c r="J328" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K328" t="s">
+        <v>929</v>
+      </c>
+      <c r="L328" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
         <v>931</v>
       </c>
       <c r="B329" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C329"/>
       <c r="D329" t="s">
-        <v>1358</v>
+        <v>14</v>
       </c>
       <c r="E329" t="s">
-        <v>932</v>
+        <v>14</v>
       </c>
       <c r="F329" t="s">
-        <v>933</v>
+        <v>14</v>
       </c>
       <c r="H329"/>
       <c r="I329"/>
       <c r="J329" t="s">
-        <v>1513</v>
+        <v>1532</v>
       </c>
       <c r="K329" t="s">
-        <v>880</v>
+        <v>932</v>
       </c>
       <c r="L329" t="s">
-        <v>881</v>
+        <v>933</v>
       </c>
     </row>
     <row r="330">
@@ -13062,17 +13076,17 @@
         <v>934</v>
       </c>
       <c r="B330" t="s">
-        <v>1096</v>
+        <v>1149</v>
       </c>
       <c r="C330"/>
       <c r="D330" t="s">
-        <v>1175</v>
+        <v>1366</v>
       </c>
       <c r="E330" t="s">
-        <v>139</v>
+        <v>935</v>
       </c>
       <c r="F330" t="s">
-        <v>140</v>
+        <v>936</v>
       </c>
       <c r="H330"/>
       <c r="I330"/>
@@ -13081,31 +13095,31 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B331" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="C331"/>
       <c r="D331" t="s">
-        <v>1359</v>
+        <v>1367</v>
       </c>
       <c r="E331" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="F331" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="H331"/>
       <c r="I331"/>
       <c r="J331" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="K331" t="s">
-        <v>938</v>
+        <v>886</v>
       </c>
       <c r="L331" t="s">
-        <v>939</v>
+        <v>887</v>
       </c>
     </row>
     <row r="332">
@@ -13113,189 +13127,189 @@
         <v>940</v>
       </c>
       <c r="B332" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C332"/>
       <c r="D332" t="s">
-        <v>1360</v>
+        <v>1184</v>
       </c>
       <c r="E332" t="s">
-        <v>941</v>
+        <v>139</v>
       </c>
       <c r="F332" t="s">
-        <v>942</v>
+        <v>140</v>
       </c>
       <c r="H332"/>
       <c r="I332"/>
-      <c r="J332" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K332" t="s">
-        <v>943</v>
-      </c>
-      <c r="L332" t="s">
-        <v>944</v>
-      </c>
+      <c r="K332"/>
+      <c r="L332"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B333" t="s">
-        <v>1096</v>
+        <v>1123</v>
       </c>
       <c r="C333"/>
       <c r="D333" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="E333" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="F333" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="H333"/>
       <c r="I333"/>
       <c r="J333" t="s">
-        <v>1526</v>
+        <v>1533</v>
       </c>
       <c r="K333" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="L333" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B334" t="s">
-        <v>1096</v>
+        <v>1120</v>
       </c>
       <c r="C334"/>
       <c r="D334" t="s">
-        <v>1362</v>
+        <v>1369</v>
       </c>
       <c r="E334" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F334" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="H334"/>
       <c r="I334"/>
       <c r="J334" t="s">
-        <v>1527</v>
+        <v>1534</v>
       </c>
       <c r="K334" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="L334" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B335" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C335"/>
       <c r="D335" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
       <c r="E335" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="F335" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="H335"/>
       <c r="I335"/>
       <c r="J335" t="s">
-        <v>1528</v>
+        <v>1535</v>
       </c>
       <c r="K335" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="L335" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B336" t="s">
-        <v>1141</v>
+        <v>1105</v>
       </c>
       <c r="C336"/>
       <c r="D336" t="s">
-        <v>1364</v>
+        <v>1371</v>
       </c>
       <c r="E336" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F336" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="H336"/>
       <c r="I336"/>
       <c r="J336" t="s">
-        <v>1529</v>
+        <v>1536</v>
       </c>
       <c r="K336" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="L336" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B337" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
       <c r="C337"/>
       <c r="D337" t="s">
-        <v>1365</v>
+        <v>1372</v>
       </c>
       <c r="E337" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="F337" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="H337"/>
       <c r="I337"/>
-      <c r="K337"/>
-      <c r="L337"/>
+      <c r="J337" t="s">
+        <v>1537</v>
+      </c>
+      <c r="K337" t="s">
+        <v>964</v>
+      </c>
+      <c r="L337" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B338" t="s">
-        <v>1114</v>
+        <v>1150</v>
       </c>
       <c r="C338"/>
       <c r="D338" t="s">
-        <v>14</v>
+        <v>1373</v>
       </c>
       <c r="E338" t="s">
-        <v>14</v>
+        <v>967</v>
       </c>
       <c r="F338" t="s">
-        <v>14</v>
+        <v>968</v>
       </c>
       <c r="H338"/>
       <c r="I338"/>
       <c r="J338" t="s">
-        <v>1530</v>
+        <v>1538</v>
       </c>
       <c r="K338" t="s">
         <v>969</v>
@@ -13309,17 +13323,17 @@
         <v>971</v>
       </c>
       <c r="B339" t="s">
-        <v>1096</v>
+        <v>1134</v>
       </c>
       <c r="C339"/>
       <c r="D339" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="E339" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F339" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H339"/>
       <c r="I339"/>
@@ -13328,10 +13342,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B340" t="s">
-        <v>1103</v>
+        <v>1123</v>
       </c>
       <c r="C340"/>
       <c r="D340" t="s">
@@ -13346,25 +13360,25 @@
       <c r="H340"/>
       <c r="I340"/>
       <c r="J340" t="s">
-        <v>1531</v>
+        <v>1539</v>
       </c>
       <c r="K340" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="L340" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B341" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C341"/>
       <c r="D341" t="s">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="E341" t="s">
         <v>977</v>
@@ -13374,99 +13388,96 @@
       </c>
       <c r="H341"/>
       <c r="I341"/>
-      <c r="J341" t="s">
-        <v>1532</v>
-      </c>
-      <c r="K341" t="s">
-        <v>979</v>
-      </c>
-      <c r="L341" t="s">
-        <v>980</v>
-      </c>
+      <c r="K341"/>
+      <c r="L341"/>
     </row>
     <row r="342">
       <c r="A342" t="s">
+        <v>979</v>
+      </c>
+      <c r="B342" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342"/>
+      <c r="E342" t="s">
+        <v>980</v>
+      </c>
+      <c r="F342" t="s">
         <v>981</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C342"/>
-      <c r="D342" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E342" t="s">
-        <v>982</v>
-      </c>
-      <c r="F342" t="s">
-        <v>983</v>
       </c>
       <c r="H342"/>
       <c r="I342"/>
-      <c r="J342" t="s">
-        <v>1533</v>
-      </c>
-      <c r="K342" t="s">
-        <v>984</v>
-      </c>
-      <c r="L342" t="s">
-        <v>985</v>
-      </c>
+      <c r="K342"/>
+      <c r="L342"/>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B343" t="s">
-        <v>1142</v>
+        <v>1112</v>
       </c>
       <c r="C343"/>
       <c r="D343" t="s">
-        <v>1369</v>
+        <v>14</v>
       </c>
       <c r="E343" t="s">
-        <v>987</v>
+        <v>14</v>
       </c>
       <c r="F343" t="s">
-        <v>988</v>
+        <v>14</v>
       </c>
       <c r="H343"/>
       <c r="I343"/>
-      <c r="K343"/>
-      <c r="L343"/>
+      <c r="J343" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K343" t="s">
+        <v>983</v>
+      </c>
+      <c r="L343" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B344" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C344"/>
       <c r="D344" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
       <c r="E344" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F344" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H344"/>
       <c r="I344"/>
-      <c r="K344"/>
-      <c r="L344"/>
+      <c r="J344" t="s">
+        <v>1541</v>
+      </c>
+      <c r="K344" t="s">
+        <v>988</v>
+      </c>
+      <c r="L344" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B345" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C345"/>
       <c r="D345" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="E345" t="s">
         <v>991</v>
@@ -13476,102 +13487,88 @@
       </c>
       <c r="H345"/>
       <c r="I345"/>
-      <c r="K345"/>
-      <c r="L345"/>
+      <c r="J345" t="s">
+        <v>1542</v>
+      </c>
+      <c r="K345" t="s">
+        <v>993</v>
+      </c>
+      <c r="L345" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B346" t="s">
-        <v>1096</v>
+        <v>1151</v>
       </c>
       <c r="C346"/>
       <c r="D346" t="s">
-        <v>14</v>
+        <v>1378</v>
       </c>
       <c r="E346" t="s">
-        <v>14</v>
+        <v>996</v>
       </c>
       <c r="F346" t="s">
-        <v>14</v>
+        <v>997</v>
       </c>
       <c r="H346"/>
       <c r="I346"/>
-      <c r="J346" t="s">
-        <v>1534</v>
-      </c>
-      <c r="K346" t="s">
-        <v>993</v>
-      </c>
-      <c r="L346" t="s">
-        <v>994</v>
-      </c>
+      <c r="K346"/>
+      <c r="L346"/>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B347" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C347"/>
       <c r="D347" t="s">
-        <v>14</v>
+        <v>1379</v>
       </c>
       <c r="E347" t="s">
-        <v>14</v>
+        <v>998</v>
       </c>
       <c r="F347" t="s">
-        <v>14</v>
+        <v>999</v>
       </c>
       <c r="H347"/>
       <c r="I347"/>
-      <c r="J347" t="s">
-        <v>1535</v>
-      </c>
-      <c r="K347" t="s">
-        <v>996</v>
-      </c>
-      <c r="L347" t="s">
-        <v>997</v>
-      </c>
+      <c r="K347"/>
+      <c r="L347"/>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B348" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C348"/>
       <c r="D348" t="s">
-        <v>14</v>
+        <v>1380</v>
       </c>
       <c r="E348" t="s">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="F348" t="s">
-        <v>14</v>
+        <v>1001</v>
       </c>
       <c r="H348"/>
       <c r="I348"/>
-      <c r="J348" t="s">
-        <v>1534</v>
-      </c>
-      <c r="K348" t="s">
-        <v>993</v>
-      </c>
-      <c r="L348" t="s">
-        <v>994</v>
-      </c>
+      <c r="K348"/>
+      <c r="L348"/>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B349" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="C349"/>
       <c r="D349" t="s">
@@ -13586,249 +13583,263 @@
       <c r="H349"/>
       <c r="I349"/>
       <c r="J349" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="K349" t="s">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="L349" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="B350" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C350"/>
       <c r="D350" t="s">
-        <v>1372</v>
+        <v>14</v>
       </c>
       <c r="E350" t="s">
-        <v>1001</v>
+        <v>14</v>
       </c>
       <c r="F350" t="s">
-        <v>1002</v>
+        <v>14</v>
       </c>
       <c r="H350"/>
       <c r="I350"/>
       <c r="J350" t="s">
-        <v>1536</v>
+        <v>1544</v>
       </c>
       <c r="K350" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="L350" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B351" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C351"/>
       <c r="D351" t="s">
-        <v>1373</v>
+        <v>14</v>
       </c>
       <c r="E351" t="s">
-        <v>1006</v>
+        <v>14</v>
       </c>
       <c r="F351" t="s">
-        <v>1007</v>
+        <v>14</v>
       </c>
       <c r="H351"/>
       <c r="I351"/>
       <c r="J351" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="K351" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="L351" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B352" t="s">
-        <v>1096</v>
+        <v>1133</v>
       </c>
       <c r="C352"/>
       <c r="D352" t="s">
-        <v>1374</v>
+        <v>14</v>
       </c>
       <c r="E352" t="s">
-        <v>1011</v>
+        <v>14</v>
       </c>
       <c r="F352" t="s">
-        <v>1012</v>
+        <v>14</v>
       </c>
       <c r="H352"/>
       <c r="I352"/>
       <c r="J352" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="K352" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="L352" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B353" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C353"/>
       <c r="D353" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="E353" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F353" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="H353"/>
       <c r="I353"/>
       <c r="J353" t="s">
-        <v>1538</v>
+        <v>1545</v>
       </c>
       <c r="K353" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L353" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B354" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C354"/>
       <c r="D354" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
       <c r="E354" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F354" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="H354"/>
       <c r="I354"/>
       <c r="J354" t="s">
-        <v>1513</v>
+        <v>1546</v>
       </c>
       <c r="K354" t="s">
-        <v>880</v>
+        <v>1017</v>
       </c>
       <c r="L354" t="s">
-        <v>881</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B355" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C355"/>
       <c r="D355" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
       <c r="E355" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F355" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H355"/>
       <c r="I355"/>
-      <c r="K355"/>
-      <c r="L355"/>
+      <c r="J355" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K355" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L355" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B356" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C356"/>
       <c r="D356" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="E356" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F356" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H356"/>
       <c r="I356"/>
       <c r="J356" t="s">
-        <v>1539</v>
+        <v>1547</v>
       </c>
       <c r="K356" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="L356" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B357" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C357"/>
       <c r="D357" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="E357" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F357" t="s">
         <v>1029</v>
-      </c>
-      <c r="F357" t="s">
-        <v>1030</v>
       </c>
       <c r="H357"/>
       <c r="I357"/>
-      <c r="K357"/>
-      <c r="L357"/>
+      <c r="J357" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K357" t="s">
+        <v>886</v>
+      </c>
+      <c r="L357" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B358" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C358"/>
       <c r="D358" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="E358" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F358" t="s">
         <v>1032</v>
-      </c>
-      <c r="F358" t="s">
-        <v>1033</v>
       </c>
       <c r="H358"/>
       <c r="I358"/>
@@ -13837,14 +13848,14 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B359" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C359"/>
       <c r="D359" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="E359" t="s">
         <v>1034</v>
@@ -13854,25 +13865,32 @@
       </c>
       <c r="H359"/>
       <c r="I359"/>
-      <c r="K359"/>
-      <c r="L359"/>
+      <c r="J359" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K359" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L359" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B360" t="s">
-        <v>1096</v>
+        <v>1116</v>
       </c>
       <c r="C360"/>
       <c r="D360" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="E360" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F360" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H360"/>
       <c r="I360"/>
@@ -13881,49 +13899,42 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B361" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C361"/>
       <c r="D361" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="E361" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F361" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H361"/>
       <c r="I361"/>
-      <c r="J361" t="s">
-        <v>1540</v>
-      </c>
-      <c r="K361" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L361" t="s">
-        <v>1043</v>
-      </c>
+      <c r="K361"/>
+      <c r="L361"/>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B362" t="s">
-        <v>1129</v>
+        <v>1105</v>
       </c>
       <c r="C362"/>
       <c r="D362" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="E362" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F362" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H362"/>
       <c r="I362"/>
@@ -13932,290 +13943,363 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B363" t="s">
-        <v>1128</v>
+        <v>1105</v>
       </c>
       <c r="C363"/>
       <c r="D363" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="E363" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F363" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H363"/>
       <c r="I363"/>
-      <c r="J363" t="s">
-        <v>1541</v>
-      </c>
-      <c r="K363" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L363" t="s">
-        <v>1051</v>
-      </c>
+      <c r="K363"/>
+      <c r="L363"/>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B364" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="C364"/>
       <c r="D364" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="E364" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F364" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="H364"/>
       <c r="I364"/>
       <c r="J364" t="s">
-        <v>1542</v>
+        <v>1549</v>
       </c>
       <c r="K364" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="L364" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B365" t="s">
-        <v>1096</v>
+        <v>1138</v>
       </c>
       <c r="C365"/>
       <c r="D365" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="E365" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="F365" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="H365"/>
       <c r="I365"/>
-      <c r="J365" t="s">
-        <v>1543</v>
-      </c>
-      <c r="K365" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L365" t="s">
-        <v>1061</v>
-      </c>
+      <c r="K365"/>
+      <c r="L365"/>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="B366" t="s">
-        <v>1096</v>
+        <v>1137</v>
       </c>
       <c r="C366"/>
       <c r="D366" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="E366" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="F366" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="H366"/>
       <c r="I366"/>
       <c r="J366" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="K366" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="L366" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="B367" t="s">
-        <v>1096</v>
+        <v>1123</v>
       </c>
       <c r="C367"/>
       <c r="D367" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="E367" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="F367" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="H367"/>
       <c r="I367"/>
       <c r="J367" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="K367" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="L367" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="B368" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C368"/>
       <c r="D368" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="E368" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="F368" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="H368"/>
       <c r="I368"/>
       <c r="J368" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
       <c r="K368" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="L368" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="B369" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C369"/>
       <c r="D369" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="E369" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="F369" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="H369"/>
       <c r="I369"/>
       <c r="J369" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="K369" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="L369" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B370" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C370"/>
       <c r="D370" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="E370" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="F370" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="H370"/>
       <c r="I370"/>
       <c r="J370" t="s">
-        <v>1548</v>
-      </c>
-      <c r="K370"/>
+        <v>1554</v>
+      </c>
+      <c r="K370" t="s">
+        <v>1079</v>
+      </c>
       <c r="L370" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B371" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C371"/>
       <c r="D371" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="E371" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="F371" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="H371"/>
       <c r="I371"/>
       <c r="J371" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="K371" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="L371" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B372" t="s">
-        <v>1143</v>
+        <v>1105</v>
       </c>
       <c r="C372"/>
       <c r="D372" t="s">
-        <v>1394</v>
+        <v>1400</v>
       </c>
       <c r="E372" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="F372" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="H372"/>
       <c r="I372"/>
       <c r="J372" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="K372" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L372" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C373"/>
+      <c r="D373" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H373"/>
+      <c r="I373"/>
+      <c r="J373" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K373"/>
+      <c r="L373" t="s">
         <v>1094</v>
       </c>
-      <c r="L372" t="s">
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
         <v>1095</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C374"/>
+      <c r="D374" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H374"/>
+      <c r="I374"/>
+      <c r="J374" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K374" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L374" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C375"/>
+      <c r="D375" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F375" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H375"/>
+      <c r="I375"/>
+      <c r="J375" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K375" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L375" t="s">
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
